--- a/examples/extract_book_info/model_comparison_results.xlsx
+++ b/examples/extract_book_info/model_comparison_results.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,13 +479,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.44</v>
+        <v>7.62</v>
       </c>
       <c r="C2" t="n">
-        <v>3.98</v>
+        <v>3.81</v>
       </c>
       <c r="D2" t="n">
-        <v>5.27</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="3">
@@ -495,13 +495,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.76</v>
+        <v>23.87</v>
       </c>
       <c r="C3" t="n">
-        <v>12.15</v>
+        <v>12.24</v>
       </c>
       <c r="D3" t="n">
-        <v>14.29</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="4">
@@ -511,13 +511,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.65</v>
+        <v>16.99</v>
       </c>
       <c r="C4" t="n">
-        <v>10.78</v>
+        <v>7.65</v>
       </c>
       <c r="D4" t="n">
-        <v>7.58</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.15</v>
+        <v>29.21</v>
       </c>
       <c r="C5" t="n">
-        <v>10.34</v>
+        <v>7.12</v>
       </c>
       <c r="D5" t="n">
-        <v>12.2</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="6">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.6</v>
+        <v>17.95</v>
       </c>
       <c r="C6" t="n">
-        <v>13.46</v>
+        <v>10.41</v>
       </c>
       <c r="D6" t="n">
-        <v>9.44</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="7">
@@ -559,13 +559,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.04</v>
+        <v>29.29</v>
       </c>
       <c r="C7" t="n">
-        <v>16.83</v>
+        <v>22.16</v>
       </c>
       <c r="D7" t="n">
-        <v>13.92</v>
+        <v>16.63</v>
       </c>
     </row>
     <row r="8">
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.15</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>3.69</v>
+        <v>4.99</v>
       </c>
       <c r="D8" t="n">
-        <v>3.85</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="9">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.699999999999999</v>
+        <v>62.98</v>
       </c>
       <c r="C9" t="n">
-        <v>4.57</v>
+        <v>5.1</v>
       </c>
       <c r="D9" t="n">
-        <v>4.77</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="10">
@@ -607,13 +607,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.5</v>
+        <v>13.46</v>
       </c>
       <c r="C10" t="n">
-        <v>10.75</v>
+        <v>10.02</v>
       </c>
       <c r="D10" t="n">
-        <v>13.55</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="11">
@@ -623,13 +623,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.8</v>
+        <v>7.58</v>
       </c>
       <c r="C11" t="n">
-        <v>5.19</v>
+        <v>4.38</v>
       </c>
       <c r="D11" t="n">
-        <v>5.95</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="12">
@@ -639,301 +639,285 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.25</v>
+        <v>10.97</v>
       </c>
       <c r="C12" t="n">
-        <v>7.49</v>
+        <v>6.37</v>
       </c>
       <c r="D12" t="n">
-        <v>5.76</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>vis-google/gemini-pro-vision</t>
+          <t>vis-google/gemma-3-27b-it</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8100000000000001</v>
+        <v>12.03</v>
       </c>
       <c r="C13" t="n">
-        <v>1.01</v>
+        <v>5.14</v>
       </c>
       <c r="D13" t="n">
-        <v>1.85</v>
+        <v>17.94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>vis-google/gemma-3-27b-it</t>
+          <t>vis-meta-llama/llama-3.2-11b-vision-instruct</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.779999999999999</v>
+        <v>7.79</v>
       </c>
       <c r="C14" t="n">
-        <v>10.52</v>
+        <v>4.66</v>
       </c>
       <c r="D14" t="n">
-        <v>4.72</v>
+        <v>64.95999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-11b-vision-instruct</t>
+          <t>vis-meta-llama/llama-3.2-90b-vision-instruct</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.26000000000001</v>
+        <v>30.98</v>
       </c>
       <c r="C15" t="n">
-        <v>3.78</v>
+        <v>31.99</v>
       </c>
       <c r="D15" t="n">
-        <v>97.55</v>
+        <v>31.61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-90b-vision-instruct</t>
+          <t>vis-meta-llama/llama-3.2-90b-vision-structured</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.3</v>
+        <v>25.1</v>
       </c>
       <c r="C16" t="n">
-        <v>30.2</v>
+        <v>14.99</v>
       </c>
       <c r="D16" t="n">
-        <v>21.44</v>
+        <v>20.65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-90b-vision-structured</t>
+          <t>vis-meta-llama/llama-4-maverick</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12.78</v>
+        <v>18.19</v>
       </c>
       <c r="C17" t="n">
-        <v>30.84</v>
+        <v>20.14</v>
       </c>
       <c r="D17" t="n">
-        <v>23.18</v>
+        <v>14.46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-4-maverick</t>
+          <t>vis-meta-llama/llama-4-scout</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.22</v>
+        <v>4.45</v>
       </c>
       <c r="C18" t="n">
-        <v>15.08</v>
+        <v>2.4</v>
       </c>
       <c r="D18" t="n">
-        <v>16.56</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-4-scout</t>
+          <t>vis-mistralai/mistral-small-3.1-24b-instruct</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.41</v>
+        <v>6.69</v>
       </c>
       <c r="C19" t="n">
-        <v>3.88</v>
+        <v>5.97</v>
       </c>
       <c r="D19" t="n">
-        <v>2.19</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>vis-mistralai/mistral-small-3.1-24b-instruct</t>
+          <t>vis-mistralai/pixtral-12b</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.75</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>4.97</v>
+        <v>4.87</v>
       </c>
       <c r="D20" t="n">
-        <v>4.17</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>vis-mistralai/pixtral-12b</t>
+          <t>vis-openai/gpt-4-turbo</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.81</v>
+        <v>23.1</v>
       </c>
       <c r="C21" t="n">
-        <v>6.81</v>
+        <v>18.26</v>
       </c>
       <c r="D21" t="n">
-        <v>8.949999999999999</v>
+        <v>12.11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4-turbo</t>
+          <t>vis-openai/gpt-4o</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>36.49</v>
+        <v>15.97</v>
       </c>
       <c r="C22" t="n">
-        <v>13.71</v>
+        <v>9.18</v>
       </c>
       <c r="D22" t="n">
-        <v>11.32</v>
+        <v>9.07</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o</t>
+          <t>vis-openai/gpt-4o-2024-08-06</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>23.46</v>
+        <v>13.84</v>
       </c>
       <c r="C23" t="n">
-        <v>8.82</v>
+        <v>7.59</v>
       </c>
       <c r="D23" t="n">
-        <v>7.38</v>
+        <v>9.039999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o-2024-08-06</t>
+          <t>vis-openai/gpt-4o-mini</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>27.94</v>
+        <v>13.18</v>
       </c>
       <c r="C24" t="n">
-        <v>21.12</v>
+        <v>6.21</v>
       </c>
       <c r="D24" t="n">
-        <v>6.31</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o-mini</t>
+          <t>vis-openai/o4-mini</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12.5</v>
+        <v>40.2</v>
       </c>
       <c r="C25" t="n">
-        <v>9.98</v>
+        <v>12.87</v>
       </c>
       <c r="D25" t="n">
-        <v>6.53</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>vis-openai/o4-mini</t>
+          <t>vis-qwen/qwen-2-vl-72b-instruct</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>28.44</v>
+        <v>31.98</v>
       </c>
       <c r="C26" t="n">
-        <v>16.95</v>
+        <v>9.83</v>
       </c>
       <c r="D26" t="n">
-        <v>18.59</v>
+        <v>32.72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-2-vl-72b-instruct</t>
+          <t>vis-qwen/qwen-vl-max</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>34.83</v>
+        <v>18.58</v>
       </c>
       <c r="C27" t="n">
-        <v>17.47</v>
+        <v>10.5</v>
       </c>
       <c r="D27" t="n">
-        <v>29.46</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-vl-max</t>
+          <t>vis-qwen/qwen-vl-plus</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>23.58</v>
+        <v>11.91</v>
       </c>
       <c r="C28" t="n">
-        <v>8.99</v>
+        <v>6.51</v>
       </c>
       <c r="D28" t="n">
-        <v>8.93</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-vl-plus</t>
+          <t>vis-qwen/qwen2.5-vl-72b-instruct</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13.35</v>
+        <v>34.09</v>
       </c>
       <c r="C29" t="n">
-        <v>6.24</v>
+        <v>14.32</v>
       </c>
       <c r="D29" t="n">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>vis-qwen/qwen2.5-vl-72b-instruct</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>32.34</v>
-      </c>
-      <c r="C30" t="n">
-        <v>22.92</v>
-      </c>
-      <c r="D30" t="n">
-        <v>25.49</v>
+        <v>22.27</v>
       </c>
     </row>
   </sheetData>
@@ -947,7 +931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1037,12 +1021,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Михаила Васильевича Федорюка</t>
+          <t>Михаил Васильевич Федорюк</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Дейл Карнеги</t>
+          <t>Дэйл Карнеги</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1038,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Василий Алексеевич Вишневский</t>
+          <t>Вишневский Василий Алексеевич</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -1142,7 +1126,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Вишневский Василий Алексеевич</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -1152,7 +1136,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Дейл Карнеги</t>
+          <t>Карнеги Дейл</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1158,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Карнеги Дейл</t>
+          <t>Дейл Карнеги</t>
         </is>
       </c>
     </row>
@@ -1208,144 +1192,145 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Василий Алексеевич Вишневский</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Михаил Васильевич Федорюк</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Дейл Карнеги</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>vis-google/gemini-pro-vision</t>
+          <t>vis-google/gemma-3-27b-it</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Вишневский Василий Алексеевич</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Михаил Васильевич Фёдоров</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Dale Carnegie; Lev Arkadevich Kuzmina; Mikhail Vladimirovich Drako; Konstantin Georgievich Strius</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>vis-google/gemma-3-27b-it</t>
+          <t>vis-meta-llama/llama-3.2-11b-vision-instruct</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Вишневский Василий Алексеевич</t>
+          <t>Jeamine Cummings</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Михайлов Василий Федорович</t>
+          <t>Tekle</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Дейл Харви Карнеги</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-11b-vision-instruct</t>
+          <t>vis-meta-llama/llama-3.2-90b-vision-instruct</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
+          <t>Вишневский Василь Алексеевич</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Дейл Карнеги
+waving instantinations=minates</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-90b-vision-instruct</t>
+          <t>vis-meta-llama/llama-3.2-90b-vision-structured</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
+          <t>_threshail Amerikanskaya russianevskaya Vladimirovich</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Фе де р ю к Михаил Васильевич Natasha Ionova</t>
-        </is>
-      </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Дэил Карнеги, Л. А. Кузьмина</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-90b-vision-structured</t>
+          <t>vis-meta-llama/llama-4-maverick</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Вишневский Васильий Алексеевич</t>
+          <t>Василий Алексеевич Вишневский</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Михаил Васильевич Федорюк</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0-671-02703-4 (англ.)</t>
+          <t>Дейл Карнеги</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-4-maverick</t>
+          <t>vis-meta-llama/llama-4-scout</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Василий Алексеевич Вишневский</t>
+          <t>Вишневский Василий Алексеевич</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Михаил Васильевич Федорюк</t>
+          <t>Федорюк Михаил Васильевич</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1357,7 +1342,7 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-4-scout</t>
+          <t>vis-mistralai/mistral-small-3.1-24b-instruct</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1367,73 +1352,73 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Федорюк Михаил Васильевич</t>
+          <t>Михаил Васильевич Федорюк</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Дейл Карнеги</t>
+          <t>Дейл Карнеги, Л. А. Кузьмина, М. В. Драко, К. Г. Страусов</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>vis-mistralai/mistral-small-3.1-24b-instruct</t>
+          <t>vis-mistralai/pixtral-12b</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Вишневский Василий Алексеевич</t>
+          <t>Василь Алексеевич Вишневский</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Михаил Васильевич Федорюк</t>
+          <t>И. В. Виклонский, С. М. Дубинян</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Дейл Карнеги</t>
+          <t>Dale Carnegie</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>vis-mistralai/pixtral-12b</t>
+          <t>vis-openai/gpt-4-turbo</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Василий Алексеевич Вишневский</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Феферман Васильев</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Дейл Карнеги</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4-turbo</t>
+          <t>vis-openai/gpt-4o</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Василий Алексеевич Виттеевский</t>
+          <t>Василий Алексеевич Вишневский</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Фёдоров Михаил Васильевич</t>
+          <t>Михаил Васильевич Федорюк</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -1445,7 +1430,7 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o</t>
+          <t>vis-openai/gpt-4o-2024-08-06</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1467,7 +1452,7 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o-2024-08-06</t>
+          <t>vis-openai/gpt-4o-mini</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1477,7 +1462,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Михаил Васильевич Федоров</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -1489,12 +1474,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o-mini</t>
+          <t>vis-openai/o4-mini</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Вишневский Василий Алексеевич</t>
+          <t>Василий Алексеевич Вишневский</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -1504,19 +1489,19 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Карнеги Дейл</t>
+          <t>Дейл Карнеги</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/o4-mini</t>
+          <t>vis-qwen/qwen-2-vl-72b-instruct</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Василий Алексеевич Вишневский</t>
+          <t>Иванов Петр Сергеевич</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -1526,89 +1511,67 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Дейл Карнеги</t>
+          <t>Дейл Карнеги Лариса Александровна Кузьмина</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-2-vl-72b-instruct</t>
+          <t>vis-qwen/qwen-vl-max</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Иванов Петр Сергеевич</t>
+          <t>Василий Алексеевич Вышневский</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Михаил Васильевич Васильев</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>Дейл Карнеги Лариса Александровна Кузьмина</t>
-        </is>
-      </c>
+          <t>Федорюк Михаил Васильевич</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-vl-max</t>
+          <t>vis-qwen/qwen-vl-plus</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Василий Алексеевич Вышневский</t>
+          <t>Василий Алексеевич Вишневский</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Федорюк Михаил Васильевич</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr"/>
+          <t>Михаил Васильевич Федорюк</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>Карнеги Дейл</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-vl-plus</t>
+          <t>vis-qwen/qwen2.5-vl-72b-instruct</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Василий Алексеевич Вишневский</t>
+          <t>Иванов Петр Сергеевич</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Михаил Васильевич Федорюк</t>
+          <t>Михаил Васильевич Федорук С М Матвеев</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>Карнеги Дейл</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>vis-qwen/qwen2.5-vl-72b-instruct</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>Иванов Петр Сергеевич</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>Михаил Васильевич Федорук С М Матвеев</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>Дейл Карнеги Лариса Александровна Кузьмина</t>
         </is>
@@ -1625,7 +1588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1666,7 +1629,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Птицы на кормушках: Подкормка и привлечение</t>
+          <t>Птицы на кормушках: Подкормка и привлечение / Василий Вишневский</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -1820,7 +1783,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Птицы на кормушках: Подкормка и привлечение</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -1852,7 +1815,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>КАК ЗАВОЁВАТЬ ДРУЗЕЙ И ОКАЗЫВАТЬ ВЛИЯНИЕ НА ЛЮДЕЙ</t>
+          <t>Как завоёвывать друзей и оказывать влияние на людей</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1827,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Птицы на кормушках Подкормка и привлечение</t>
+          <t>Птицы на кормушках: Подкормка и привлечение</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -1874,7 +1837,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Как завоевывать друзей и оказывать влияние на людей</t>
+          <t>Как завоёвывать друзей и оказывать влияние на людей</t>
         </is>
       </c>
     </row>
@@ -1886,134 +1849,134 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Птицы на кормушках: Подкормка и привлечение</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Асимптотические методы для линейных обыкновенных дифференциальных уравнений</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Как завоёвывать друзей и оказывать влияние на людей</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>vis-google/gemini-pro-vision</t>
+          <t>vis-google/gemma-3-27b-it</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Птицы на кормушках: Подкормка и привлечение</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Асимптотические методы для линейных обыкновенных дифференциальных уравнений</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>HOW TO WIN FRIENDS &amp; INFLUENCE PEOPLE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>vis-google/gemma-3-27b-it</t>
+          <t>vis-meta-llama/llama-3.2-11b-vision-instruct</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Птицы в кормушках: Подкормка и привлечение</t>
+          <t>The Magician's Land</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Асимптотические методы для линейных дифференциальных уравнений обыкновенных дифференциальных уравнений</t>
+          <t>ON ETHNOGRAPHIC QUESTIONDOGMA</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Как завоёвывать друзей и оказывать влияние на людей</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-11b-vision-instruct</t>
+          <t>vis-meta-llama/llama-3.2-90b-vision-instruct</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
+          <t>Птицы на кормушках: Подкормка и привлечение</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Как завоёвывать друзей и оказывать влияние на людей</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-90b-vision-instruct</t>
+          <t>vis-meta-llama/llama-3.2-90b-vision-structured</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Птицы на кормушках: Подкормка и привлечение</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Асимтотические методы для линейных обыкновенных дифференциальных уравнений. Фе д о р ю к М.  В. - Н. М.: Наука. Г л а в н ая р е д а к ц и я ф и з иfifo-м а т е м а т и ч е с к ой л и т е р а т у р ы, 1983. - 352 с.</t>
+          <t>Асимптотические методы для линейных обыкновенных дифференциальных уравнений.</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>HOW TO WIN FRIENDS &amp; INFLUENCE PEOPLE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-90b-vision-structured</t>
+          <t>vis-meta-llama/llama-4-maverick</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>УДК 59.009:598.2 ББК 28.693.35</t>
+          <t>Птицы на кормушках: Подкормка и привлечение</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Асимптотические методы для линейных обыкновенных дифференциальных уравнений</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Перевод с английского выходит издание: HOW TO WIN FRIENDS &amp; INFLUENCE PEOPLE by Dale Carnegie.- N.Y.: «Pocket Books», 1982.</t>
+          <t>Как завоёвывать друзей и оказывать влияние на людей</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-4-maverick</t>
+          <t>vis-meta-llama/llama-4-scout</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -2035,7 +1998,7 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-4-scout</t>
+          <t>vis-mistralai/mistral-small-3.1-24b-instruct</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -2057,51 +2020,51 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>vis-mistralai/mistral-small-3.1-24b-instruct</t>
+          <t>vis-mistralai/pixtral-12b</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Птицы на кормушках: Подкормка и привлечение</t>
+          <t>Путویش на курмуниках: Полкормка и привлечение / Василий Вишневский</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Aсимптотические методы для линейных обыкновенных дифференциальных уравнений</t>
+          <t>Асимметричные методы для линейных обобщенных дифференциальных уравнений</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Как завоёвывать друзей и оказывать влияние на людей</t>
+          <t>Как завоевать друзей и оказать влияние на людей</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>vis-mistralai/pixtral-12b</t>
+          <t>vis-openai/gpt-4-turbo</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Птицы на кормушках: Подкормка и привлечение</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Асимптотические методы для линейных обыкновенных дифференциальных уравнений</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Как завоевывать друзей и оказывать влияние на людей</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4-turbo</t>
+          <t>vis-openai/gpt-4o</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -2116,14 +2079,14 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Как завоевывать друзей и оказывать влияние на людей</t>
+          <t>Как завоёвывать друзей и оказывать влияние на людей</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o</t>
+          <t>vis-openai/gpt-4o-2024-08-06</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -2145,7 +2108,7 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o-2024-08-06</t>
+          <t>vis-openai/gpt-4o-mini</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -2155,7 +2118,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Асимптотические методы для линейных обыкновенных дифференциальных уравнений</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -2167,7 +2130,7 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o-mini</t>
+          <t>vis-openai/o4-mini</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -2189,12 +2152,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/o4-mini</t>
+          <t>vis-qwen/qwen-2-vl-72b-instruct</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Птицы на кормушках: Подкормка и привлечение</t>
+          <t>Путешествие в мир звезд</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -2204,19 +2167,19 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Как завоёвывать друзей и оказывать влияние на людей</t>
+          <t>Как за вёвыать дружей и оказывать влияние на людей</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-2-vl-72b-instruct</t>
+          <t>vis-qwen/qwen-vl-max</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Путешествие в мир звезд</t>
+          <t>Птицы на кормушках: Подкормка и привлечение</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -2226,14 +2189,14 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Как за вёвыать дружей и оказывать влияние на людей</t>
+          <t>Как завоёвывать друзей и оказывать влияние на людей</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-vl-max</t>
+          <t>vis-qwen/qwen-vl-plus</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -2248,19 +2211,19 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Как завоёвывать друзей и оказывать влияние на людей</t>
+          <t>Как завоевывать друзей и оказывать влияние на людей</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-vl-plus</t>
+          <t>vis-qwen/qwen2.5-vl-72b-instruct</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Птицы на кормушках: Подкормка и привлечение</t>
+          <t>Путешествие в мир звезд</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -2269,28 +2232,6 @@
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>Как завоевывать друзей и оказывать влияние на людей</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>vis-qwen/qwen2.5-vl-72b-instruct</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>Путешествие в мир звезд</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>Асимптотические методы для линейных обыкновенных дифференциальных уравнений</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>Как за вёвыать дружей и оказывать влияние на людей</t>
         </is>
@@ -2307,7 +2248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2353,12 +2294,12 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Федорюк М.В.</t>
+          <t>Федорюк Михаил Васильевич</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Карнеги Д</t>
+          <t>Карнеги Дейл</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2311,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Вишневский. Василий Алексеевич</t>
+          <t>Вишневский В.</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -2380,7 +2321,7 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Д. Карнеги</t>
+          <t>Карнеги Д.</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2338,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Ф. оп п ок М. Б.   М. с. Наука</t>
+          <t>Ф. О'п о н о к М. Б. Наука</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -2414,7 +2355,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>В. Вишневский</t>
+          <t>Вишневский В.А.</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -2436,7 +2377,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Василий Вишневский</t>
+          <t>Вишневский В.А.</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -2480,7 +2421,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Василий Вишневский</t>
+          <t>Вишневский, Василий Алексеевич</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -2502,7 +2443,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Вишневский, Василий Алексеевич</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -2546,7 +2487,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Вишневский Василий</t>
+          <t>Василий Вишневский</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -2568,134 +2509,134 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Василий Вишневский</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>М. В. Федорюк</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Д. Карнеги</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>vis-google/gemini-pro-vision</t>
+          <t>vis-google/gemma-3-27b-it</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Вишневский, Василий Алексеевич</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Фёдоров М. В.</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Dale Carnegie</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>vis-google/gemma-3-27b-it</t>
+          <t>vis-meta-llama/llama-3.2-11b-vision-instruct</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Вишневский, Василий Алексеевич</t>
+          <t>jeanine cummings</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Михайлов Василий Федорович</t>
+          <t>Tekle,</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Д. Карнеги</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-11b-vision-instruct</t>
+          <t>vis-meta-llama/llama-3.2-90b-vision-instruct</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
+          <t>Вишневский Василь Алексеевич</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Д. Карнеги</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-90b-vision-instruct</t>
+          <t>vis-meta-llama/llama-3.2-90b-vision-structured</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Вашневский В.</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Михаил Васильевич Фе де р ю к</t>
+          <t>В. М. Бабич</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Дэил Карнеги</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-90b-vision-structured</t>
+          <t>vis-meta-llama/llama-4-maverick</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Вишневский, Васильий Алексеевич</t>
+          <t>Василий Вишневский</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Федорюк М.В.</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>КАРНЕГИ ДТЛЛК16232443111111111111к Lesbek KNIL Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini Kajilini L</t>
+          <t>Д. Карнеги</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-4-maverick</t>
+          <t>vis-meta-llama/llama-4-scout</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -2717,83 +2658,83 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-4-scout</t>
+          <t>vis-mistralai/mistral-small-3.1-24b-instruct</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Василий Вишневский</t>
+          <t>Вишневский В.А.</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Федорюк М. В.</t>
+          <t>М. В. Федорюк</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Д. Карнеги</t>
+          <t>Дейл Карнеги</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>vis-mistralai/mistral-small-3.1-24b-instruct</t>
+          <t>vis-mistralai/pixtral-12b</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Вишневский</t>
+          <t>Василий Алексеевич Вишневский</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Федорюк М. В.</t>
+          <t>И. В. Виклонский, С. М. Дубинян</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Дейл Карнеги</t>
+          <t>Д. Карнеги</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>vis-mistralai/pixtral-12b</t>
+          <t>vis-openai/gpt-4-turbo</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Василий Вишневский</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Феферман Васильев</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Д. Карнеги</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4-turbo</t>
+          <t>vis-openai/gpt-4o</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Василий Виттеевский</t>
+          <t>Василий Алексеевич Вишневский</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Фёдоров</t>
+          <t>Федорюк М. В.</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -2805,7 +2746,7 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o</t>
+          <t>vis-openai/gpt-4o-2024-08-06</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -2815,46 +2756,46 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Федорюк М. В.</t>
+          <t>Федорюк М.В.</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Карнеги, Д.</t>
+          <t>Д. Карнеги</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o-2024-08-06</t>
+          <t>vis-openai/gpt-4o-mini</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Вишневский Василий Алексеевич</t>
+          <t>Вишневский</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Федоров М. В.</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Д. Карнеги</t>
+          <t>Дейл Карнеги</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o-mini</t>
+          <t>vis-openai/o4-mini</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Вишневский</t>
+          <t>Василий Вишневский</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -2864,115 +2805,93 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Карнеги Дейл</t>
+          <t>Карнеги, Д.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/o4-mini</t>
+          <t>vis-qwen/qwen-2-vl-72b-instruct</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Василий Вишневский</t>
+          <t>Иванов Петр Сергеевич</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Федорюк М. В.</t>
+          <t>Федорюк М В</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Д. Карнеги</t>
+          <t>Д Карнеги пер с англ Л А Кузьмина</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-2-vl-72b-instruct</t>
+          <t>vis-qwen/qwen-vl-max</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Иванов Петр Сергеевич</t>
+          <t>Василий Вышневский</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Васильев М А</t>
+          <t>Федорюк М В</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Д Карнеги пер с англ Л А Кузьмина</t>
+          <t>Д Карнеги</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-vl-max</t>
+          <t>vis-qwen/qwen-vl-plus</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Василий Вышневский</t>
+          <t>Василий Вишневский</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Федорюк М В</t>
+          <t>Михаил Васильевич Федорюк</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Д Карнеги</t>
+          <t>Д. Карнеги</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-vl-plus</t>
+          <t>vis-qwen/qwen2.5-vl-72b-instruct</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Василий Вишневский</t>
+          <t>Иванов Петр Сергеевич</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Михаил Васильевич Федорюк</t>
+          <t>Васильев Федорук Матвеев</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>Д. Карнеги</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>vis-qwen/qwen2.5-vl-72b-instruct</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>Иванов Петр Сергеевич</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>Васильев Федорук Матвеев</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>Д Карнеги пер с англ Л А Кузьмина</t>
         </is>
@@ -2989,7 +2908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3052,7 +2971,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>304 с. : ил.</t>
+          <t>304</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -3074,7 +2993,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>304 с.</t>
+          <t>304 с.: ил.</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -3084,7 +3003,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>352 c.</t>
+          <t>352</t>
         </is>
       </c>
     </row>
@@ -3150,7 +3069,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>352 с.</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3103,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>304</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -3250,112 +3169,112 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>304</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>352</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>352</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>vis-google/gemini-pro-vision</t>
+          <t>vis-google/gemma-3-27b-it</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>304</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>352</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>352</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>vis-google/gemma-3-27b-it</t>
+          <t>vis-meta-llama/llama-3.2-11b-vision-instruct</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>256</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-11b-vision-instruct</t>
+          <t>vis-meta-llama/llama-3.2-90b-vision-instruct</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>352</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-90b-vision-instruct</t>
+          <t>vis-meta-llama/llama-3.2-90b-vision-structured</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>304</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>352 с.</t>
+          <t>352</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>352</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-90b-vision-structured</t>
+          <t>vis-meta-llama/llama-4-maverick</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -3365,19 +3284,19 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>352</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>316.6 ББК 88.5</t>
+          <t>352</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-4-maverick</t>
+          <t>vis-meta-llama/llama-4-scout</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -3399,7 +3318,7 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-4-scout</t>
+          <t>vis-mistralai/mistral-small-3.1-24b-instruct</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -3421,7 +3340,7 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>vis-mistralai/mistral-small-3.1-24b-instruct</t>
+          <t>vis-mistralai/pixtral-12b</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -3443,29 +3362,29 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>vis-mistralai/pixtral-12b</t>
+          <t>vis-openai/gpt-4-turbo</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>304</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>352</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>352</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4-turbo</t>
+          <t>vis-openai/gpt-4o</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -3487,7 +3406,7 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o</t>
+          <t>vis-openai/gpt-4o-2024-08-06</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -3509,7 +3428,7 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o-2024-08-06</t>
+          <t>vis-openai/gpt-4o-mini</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -3519,7 +3438,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>352</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -3531,7 +3450,7 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o-mini</t>
+          <t>vis-openai/o4-mini</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -3553,12 +3472,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/o4-mini</t>
+          <t>vis-qwen/qwen-2-vl-72b-instruct</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>320</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -3575,17 +3494,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-2-vl-72b-instruct</t>
+          <t>vis-qwen/qwen-vl-max</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>304</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>352</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -3597,7 +3516,7 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-vl-max</t>
+          <t>vis-qwen/qwen-vl-plus</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -3619,12 +3538,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-vl-plus</t>
+          <t>vis-qwen/qwen2.5-vl-72b-instruct</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>320</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -3633,28 +3552,6 @@
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>352</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>vis-qwen/qwen2.5-vl-72b-instruct</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>352</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>352</t>
         </is>
@@ -3671,7 +3568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3712,7 +3609,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Фитон XXI</t>
+          <t>Питон XXI</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -3734,12 +3631,12 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>М. : Фитон XXI</t>
+          <t>Фитон XXI</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Главная редакция физико-математической литературы издательства "Наука"</t>
+          <t>Главная редакция физико-математической литературы издательства «Наука»</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -3756,12 +3653,12 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Фитон XXI</t>
+          <t>М.: Фитон XXI</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Главная редакция физико математической литературы</t>
+          <t>М.</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -3866,7 +3763,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Фитон XXI</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -3932,144 +3829,144 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Фитон XXI</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Наука. Главная редакция физико-математической литературы</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Попурри</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>vis-google/gemini-pro-vision</t>
+          <t>vis-google/gemma-3-27b-it</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Фитон XXI</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Наука</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>«Попурри»</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>vis-google/gemma-3-27b-it</t>
+          <t>vis-meta-llama/llama-3.2-11b-vision-instruct</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Издательство «Читон XXI»</t>
+          <t>Knopf</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Наука</t>
+          <t>ISER Press</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Попурри</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-11b-vision-instruct</t>
+          <t>vis-meta-llama/llama-3.2-90b-vision-instruct</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
+          <t>Фитон XXI</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Попурри</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-90b-vision-instruct</t>
+          <t>vis-meta-llama/llama-3.2-90b-vision-structured</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ФИТОН XXI</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Наукa</t>
+          <t>Наука.</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>«Попурри»</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-90b-vision-structured</t>
+          <t>vis-meta-llama/llama-4-maverick</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Фитон</t>
+          <t>Фитoн XXI</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Наука. Главная редакция физико-математической литературы</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>.UIManager346b843833ae9949914499563549057455341</t>
+          <t>Попурри</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-4-maverick</t>
+          <t>vis-meta-llama/llama-4-scout</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Фитoн XXI</t>
+          <t>Фитон XXI</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Наука. Главная редакция физико-математической литературы</t>
+          <t>Главная редакция физико-математической литературы</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -4081,7 +3978,7 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-4-scout</t>
+          <t>vis-mistralai/mistral-small-3.1-24b-instruct</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -4103,12 +4000,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>vis-mistralai/mistral-small-3.1-24b-instruct</t>
+          <t>vis-mistralai/pixtral-12b</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Фитон XXI</t>
+          <t>ООО Фитон XXI</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -4118,36 +4015,36 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Попурри</t>
+          <t>Минск : Попурри</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>vis-mistralai/pixtral-12b</t>
+          <t>vis-openai/gpt-4-turbo</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Фитон XXI</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Наука</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ООО "Попурри"</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4-turbo</t>
+          <t>vis-openai/gpt-4o</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -4162,14 +4059,14 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Издательство "Попурри"</t>
+          <t>Попурри</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o</t>
+          <t>vis-openai/gpt-4o-2024-08-06</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -4191,7 +4088,7 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o-2024-08-06</t>
+          <t>vis-openai/gpt-4o-mini</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -4201,7 +4098,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Наука</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -4213,7 +4110,7 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o-mini</t>
+          <t>vis-openai/o4-mini</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -4223,46 +4120,46 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Наука</t>
+          <t>Наука. Главная редакция физико-математической литературы</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Попури</t>
+          <t>Попурри</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/o4-mini</t>
+          <t>vis-qwen/qwen-2-vl-72b-instruct</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Фитон XXI</t>
+          <t>Наука и жизнь</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Наука. Главная редакция физико-математической литературы</t>
+          <t>Наука Главная редакция физико математической литературы</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Попурри</t>
+          <t>Попурн</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-2-vl-72b-instruct</t>
+          <t>vis-qwen/qwen-vl-max</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Наука и жизнь</t>
+          <t>Фитон XXI</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -4272,14 +4169,14 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Попурн</t>
+          <t>Попурри</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-vl-max</t>
+          <t>vis-qwen/qwen-vl-plus</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -4294,19 +4191,19 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Попурри</t>
+          <t>Попури</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-vl-plus</t>
+          <t>vis-qwen/qwen2.5-vl-72b-instruct</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Фитон XXI</t>
+          <t>Наука и жизнь</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -4315,28 +4212,6 @@
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>Попури</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>vis-qwen/qwen2.5-vl-72b-instruct</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>Наука и жизнь</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>Наука</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>Попурн</t>
         </is>
@@ -4353,7 +4228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4548,7 +4423,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -4614,95 +4489,95 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>vis-google/gemini-pro-vision</t>
+          <t>vis-google/gemma-3-27b-it</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1982</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>vis-google/gemma-3-27b-it</t>
+          <t>vis-meta-llama/llama-3.2-11b-vision-instruct</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-11b-vision-instruct</t>
+          <t>vis-meta-llama/llama-3.2-90b-vision-instruct</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-90b-vision-instruct</t>
+          <t>vis-meta-llama/llama-3.2-90b-vision-structured</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -4712,14 +4587,14 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-90b-vision-structured</t>
+          <t>vis-meta-llama/llama-4-maverick</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -4729,7 +4604,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -4741,7 +4616,7 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-4-maverick</t>
+          <t>vis-meta-llama/llama-4-scout</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -4763,7 +4638,7 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-4-scout</t>
+          <t>vis-mistralai/mistral-small-3.1-24b-instruct</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -4785,12 +4660,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>vis-mistralai/mistral-small-3.1-24b-instruct</t>
+          <t>vis-mistralai/pixtral-12b</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -4807,29 +4682,29 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>vis-mistralai/pixtral-12b</t>
+          <t>vis-openai/gpt-4-turbo</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4-turbo</t>
+          <t>vis-openai/gpt-4o</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -4851,7 +4726,7 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o</t>
+          <t>vis-openai/gpt-4o-2024-08-06</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -4873,7 +4748,7 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o-2024-08-06</t>
+          <t>vis-openai/gpt-4o-mini</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -4883,7 +4758,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -4895,7 +4770,7 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o-mini</t>
+          <t>vis-openai/o4-mini</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -4917,12 +4792,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/o4-mini</t>
+          <t>vis-qwen/qwen-2-vl-72b-instruct</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -4939,17 +4814,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-2-vl-72b-instruct</t>
+          <t>vis-qwen/qwen-vl-max</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -4961,7 +4836,7 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-vl-max</t>
+          <t>vis-qwen/qwen-vl-plus</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -4983,42 +4858,20 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-vl-plus</t>
+          <t>vis-qwen/qwen2.5-vl-72b-instruct</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>vis-qwen/qwen2.5-vl-72b-instruct</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
@@ -5035,7 +4888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5169,11 +5022,7 @@
           <t>978-5-6051287-5-5</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1702070000—134/053(02)-83 06-83</t>
-        </is>
-      </c>
+      <c r="C7" s="2" t="inlineStr"/>
       <c r="D7" s="2" t="inlineStr">
         <is>
           <t>978-985-15-1966-4</t>
@@ -5206,7 +5055,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>978-5-6051287-5-5</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr"/>
@@ -5227,7 +5076,11 @@
           <t>978-5-6051287-5-5</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>ИБ № 12066</t>
+        </is>
+      </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
           <t>978-985-15-1966-4</t>
@@ -5260,104 +5113,96 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>978-5-6051287-5-5</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr"/>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>978-985-15-1966-4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>vis-google/gemini-pro-vision</t>
+          <t>vis-google/gemma-3-27b-it</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>978-5-6051287-5-5</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1702070000-134</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>978-985-15-1966-4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>vis-google/gemma-3-27b-it</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>978-5-6051287-5-5</t>
-        </is>
-      </c>
+          <t>vis-meta-llama/llama-3.2-11b-vision-instruct</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr"/>
       <c r="C14" s="2" t="inlineStr"/>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>978-985-15-1966-4</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-11b-vision-instruct</t>
+          <t>vis-meta-llama/llama-3.2-90b-vision-instruct</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
+          <t>978-5-6051287-5-5</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>978-985-15-1966-4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-90b-vision-instruct</t>
+          <t>vis-meta-llama/llama-3.2-90b-vision-structured</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>978-5-6051287-5-5</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>978-985-15-1966-4</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-90b-vision-structured</t>
+          <t>vis-meta-llama/llama-4-maverick</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -5365,11 +5210,7 @@
           <t>978-5-6051287-5-5</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="C17" s="2" t="inlineStr"/>
       <c r="D17" s="2" t="inlineStr">
         <is>
           <t>978-985-15-1966-4</t>
@@ -5379,7 +5220,7 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-4-maverick</t>
+          <t>vis-meta-llama/llama-4-scout</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -5397,7 +5238,7 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-4-scout</t>
+          <t>vis-mistralai/mistral-small-3.1-24b-instruct</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -5415,7 +5256,7 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>vis-mistralai/mistral-small-3.1-24b-instruct</t>
+          <t>vis-mistralai/pixtral-12b</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -5423,11 +5264,7 @@
           <t>978-5-6051287-5-5</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>12066</t>
-        </is>
-      </c>
+      <c r="C20" s="2" t="inlineStr"/>
       <c r="D20" s="2" t="inlineStr">
         <is>
           <t>978-985-15-1966-4</t>
@@ -5437,29 +5274,29 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>vis-mistralai/pixtral-12b</t>
+          <t>vis-openai/gpt-4-turbo</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>978-5-6051287-5-5</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>068-83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>978-985-15-1966-4</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4-turbo</t>
+          <t>vis-openai/gpt-4o</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -5467,11 +5304,7 @@
           <t>978-5-6051287-5-5</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>1702700000-134</t>
-        </is>
-      </c>
+      <c r="C22" s="2" t="inlineStr"/>
       <c r="D22" s="2" t="inlineStr">
         <is>
           <t>978-985-15-1966-4</t>
@@ -5481,7 +5314,7 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o</t>
+          <t>vis-openai/gpt-4o-2024-08-06</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -5499,7 +5332,7 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o-2024-08-06</t>
+          <t>vis-openai/gpt-4o-mini</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -5507,11 +5340,7 @@
           <t>978-5-6051287-5-5</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="C24" s="2" t="inlineStr"/>
       <c r="D24" s="2" t="inlineStr">
         <is>
           <t>978-985-15-1966-4</t>
@@ -5521,7 +5350,7 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o-mini</t>
+          <t>vis-openai/o4-mini</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -5539,43 +5368,43 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/o4-mini</t>
+          <t>vis-qwen/qwen-2-vl-72b-instruct</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>978-5-6051287-5-5</t>
+          <t>978-5-907145-01-2</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr"/>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>978-985-15-1966-4</t>
+          <t>978-985-15-1964-3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-2-vl-72b-instruct</t>
+          <t>vis-qwen/qwen-vl-max</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>978-5-907145-01-2</t>
+          <t>978-5-6051287-5-5</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr"/>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>978-985-15-1964-3</t>
+          <t>978-985-15-1966-4</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-vl-max</t>
+          <t>vis-qwen/qwen-vl-plus</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -5583,7 +5412,11 @@
           <t>978-5-6051287-5-5</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr"/>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1702070000</t>
+        </is>
+      </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
           <t>978-985-15-1966-4</t>
@@ -5593,38 +5426,16 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-vl-plus</t>
+          <t>vis-qwen/qwen2.5-vl-72b-instruct</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>978-5-6051287-5-5</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>1702070000</t>
-        </is>
-      </c>
+          <t>978-5-907145-01-2</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr"/>
       <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>978-985-15-1966-4</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>vis-qwen/qwen2.5-vl-72b-instruct</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>978-5-907145-01-2</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr"/>
-      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>978-985-15-1964-3</t>
         </is>
@@ -5641,7 +5452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5682,17 +5493,17 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за нею — натыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона до дачного участка, парка или близлежащего леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезны, то и тому, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации, как их избежать и как защитить перелётных гостей от врагов. Если вы посетите книгу, то никто на неё не привлечёт — загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких — всем необходима наша помощь в трудные времена.</t>
+          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за ними приносит массу удовольствий. Книга натыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкармливать, что это можно в самых разных местах: от балкона до дачного участка, парка или близлежащего леса. Большое внимание в книге уделено разнообразию форм, и поскольку не все они полезны, то и тому, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации, как их избежать и как защитить пернатых гостей от врагов. Если вы повесили или подкармливаете птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких — всем необходима ваша помощь в трудные времена.</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространения волн и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов.</t>
+          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространение волн и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов.</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Поучения инструкции и советы Дейла Карнеги за десятки лет прошедшие с момента первого опубликования этой книги помогли тысячам людей стать известными и общество и сделаться влиятельными во всех начинаниях Наследники автора пересмотрели и немного обновили текст подтвердив его актуальность и теперь в начале нового века</t>
+          <t>Поучения инструкции и советы Дейла Карнеги за десятки лет проедшие с момента первого опубликования этой книги помогли тысячам людей стать известными и успешными во всех начинаниях Настоящее издание автора пересмотрели и немного обновили текст подтверждая его актуальность и теперь в начале нового века</t>
         </is>
       </c>
     </row>
@@ -5704,17 +5515,17 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или ближайшего леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезны, то и тому, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на данный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации. Если вы повесили кормушку, по никто на неё не прилетает — загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких — всем необходима ваша помощь в трудные времена. Книга основана на данных научных исследований и многолетнем опыте автора, профессионального зооинженера, орнитолога и фотографа. Она написана с большой любовью к птицам.</t>
+          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или ближайшего леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезны, то и тому, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации. Если вы повесили кормушку, но никто на неё не прилетает — загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких — всем необходима ваша помощь в трудные времена.</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространению волн и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов. Рис. 26. Библ. 142 назв.</t>
+          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространения волн и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов.</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Поучения, инструкции и советы Дейла Карнеги за десятки лет, прошедшие с момента первого опубликования этой книги, помогли тысячам людей стать известными в обществе и удачливыми во всех начинаниях. Наследием автора перссмотрели и немного обновили текст, подтверждая его актуальность и теперь, в начале нового века. Для широкого круга читателей.</t>
+          <t>Поучения, инструкции и советы Дейла Карнеги за десятки лет, прошедшие с момента первого опубликования этой книги, помогли тысячам людей стать известными и общество и удачливыми во всех начинаниях. Наследию автора пересмотрели и немного обновили текст, подтверждая его актуальность и теперь, в начале нового века. Для широкого круга читателей.</t>
         </is>
       </c>
     </row>
@@ -5726,17 +5537,17 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или ближайшего леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезны, то и тому, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации, как их избежать и как защитить пернатых от вредителей и конкурентов. Если вы повесили кормушку, но никто не прилетает — загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно встретить: как самых обычных, так и редких — всем необходима ваша помощь в трудные времена.</t>
+          <t>Подкормка птиц это очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или глубин лесного леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезны, то и тому, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации, как их избежать и как защитить пернатых от врагов и конкурентов. Если вы повесили кормушку, то ничто не придётся заглянуть в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких всем необходима ваша помощь в трудные времена.</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики  радиофизики  аэрогидродинамики  для математиков  физиков  инженеров  а также для студентов и аспирантов университетов и инженерно физических вузов.</t>
+          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, радиофизики, электроники и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов.</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Поучения, инструкции и советы Дэйла Карнеги за десятки лет, прошедшие с момента первого опубликования этой книги, помогли тысячам людей стать известными в общество и удачливыми во всех начинаниях. Наследники автора пересмотрели и немного обновили текст, подтвердив его актуальность и теперь, в начале нового века.</t>
+          <t>Поучения, инструкции и советы Дэйла Карнеги за десятки лет, прошедшие с момента первого опубликования этой книги, помогли тысячам людей стать известными в обществе и удачливыми во всех начинаниях. Наследники автора пересмотрели и немного обновили текст, подтвердив его актуальность и теперь в начале нового века. Для широкого круга читателей.</t>
         </is>
       </c>
     </row>
@@ -5770,7 +5581,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или близлежащего леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезны, то и тому, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации, как их избежать и как защитить пернатых гостей от врагов и конкурентов. Если вы повесили кормушку, но никто на неё не прилетает — загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких — всем необходима ваша помощь в трудные времена. Книга основана на данных научных исследований и многолетнем опыте автора, профессионального зооинженера, орнитолога и фотографа. Она написана с большой любовью к птицам.</t>
+          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или ближайшего леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезны, то и тому, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации, как их избежать и как защитить пернатых гостей от врагов и конкурентов. Если вы повесили кормушку, но никто на неё не прилетает — загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких — всем необходима ваша помощь в трудные времена. Книга основана на данных научных исследований и многолетнем опыте автора, профессионального зооинженера, орнитолога и фотографа. Она написана с большой любовью к птицам.</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -5814,12 +5625,12 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за пер натыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или близлежащего леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезны, то и тому, чем можно (а чем нель зя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации, как их избежать и как защитить пернатых гостей от врагов и конкурентов. Если вы повеси ли кормушку, но никто на неё не прилетает   загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких   всем необходима ваша помощь в трудные времена. Книга основана на данных научных исследований и многолетнем опы те автора, профессионального зооинженера, орнитолога и фотографа. Она написана с большой любовью к птицам.</t>
+          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за пер- натыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или близлежащего леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезны, то и тому, чем можно (а чем нель-зя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации, как их избежать и как защитить пернатых гостей от врагов и конкурентов. Если вы повеси- ли кормушку, но никто на неё не прилетает   загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких   всем необходима ваша помощь в трудные времена. Книга основана на данных научных исследований и многолетнем опы- те автора, профессионального зооинженера, орнитолога и фотографа. Она написана с большой любовью к птицам.</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространения воли и др.  Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов. Рис. 26. Библ. 112 назв.</t>
+          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространения воли и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов. Рис. 26. Библ. 112 назв,</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -5836,12 +5647,12 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за пер- натыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или близлежащего леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезны, то и тому, чем можно (а чем нель- зя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации, как их избежать и как защитить пернатых гостей от врагов и конкурентов. Если вы повеси- ли кормушку, но никто на неё не прилетает — загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких — всем необходима ваша помощь в трудные времена.  Книга основана на данных научных исследований и многолетнем опы- те автора, профессионального зооинженера, орнитолога и фотографа. Она написана с большой любовью к птицам.</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространения воли и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов. Рис. 26. Библ. 112 назв</t>
+          <t>В книге содержатся асимптотические методы решения линейных обыкно- венных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространения воли и др. Для математиков, физиков, инженеров, а также для студентов и аспиран тов университетов и инженерно-физических вузов. Рис. 26. Библ. 112 назв,</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -5858,17 +5669,17 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за пер- натими посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как чем когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка парка или близлежащего леса. Большое внимание в книге уделено разнообразию кормов и поскольку не все они полезны то и тому чем можно (а чем нель- зя) кормить как приготовить корм как его хранить. Кроме подкормки вы можете посадить определённые растения которые привлекут ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей в книге даны очень важные рекомендации как их избежать и как защитить пернатых гостей от врагов и конкурентов. Если вы повеси- ли кормушку но никто на неё не прилетает — загляните в главу о том как привлечь птиц в этом случае. И наконец большая заключительная часть книги посвящена разнообразию птиц которых можно подкармливать: как самых обычных так и редких — всем необходима ваша помощь в трудные времена. Книга основана на данных научных исследований и многолетнем опы- те автора профессионального зооинженера орнитолога и фотографа. Она написана с большой любовью к птицам.</t>
+          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы как, чем, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах от балкона городской квартиры до дачного участка, парка или близлежащего леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезны, то и тому, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации, как их избежать и как защитить пернатых гостей от врагов и конкурентов. Если вы повесили кормушку, но никто на неё не прилетает — загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать как самых обычных, так и редких — всем необходима ваша помощь в трудные времена. Книга основана на данных научных исследований и многолетнем опыте автора, профессионального зооинженера, орнитолога и фотографа. Она написана с большой любовью к птицам.</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространения воли и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов. Рис. 26. Библ. 112 назв,</t>
+          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространения воли и др. Для математиков, физиков, инженеров, а также для студентов и аспиран тов университетов и инженерно-физических вузов. Рис. 26. Библ. 112 назв,</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Поучения, инструкции и советы Дейла Карнеги за десятки лет, прошедшие с момента первого опубликования этой книги, помоги тысячам людей стать известными в обществе и удачливыми во всех начинаниях. Наследники автора пересмотрели и немного обновили текст, подтверждая его актуальность и теперь, в начале нового века. Для широкого круга читателей.</t>
+          <t>Поучения, инструкции и советы Дейла Карнеги за десятки лет, прошедшие с момента первого опубликования этой книги, помогли тысячам людей стать известными в обществе и удачливыми во всех начинаниях. Наследники автора пересмотрели и немного обновили текст, подтверждая его актуальность и теперь, в начале нового века. Для широкого круга читателей.</t>
         </is>
       </c>
     </row>
@@ -5880,12 +5691,12 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Подкормка птиц — очень важное и нужное дело а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия Книга даёт исчерпывающие ответы на самые важные вопросы как чем когда и каких диких птиц подкармливать Делать это можно в самых разных местах от балкона городской квартиры до дачного участка парка или близлежащего леса Большое внимание в книге уделено разнообразию кормов и поскольку не все они полезны то и тому чем можно а чем нельзя кормить как приготовить корм как его хранить Кроме подкормки вы можете посадить определённые растения которые привлекут ещё больше птиц на дачный участок Поскольку посещение кормушек связано с рядом опасностей в книге даны очень важные рекомендации как их избежать и как защитить пернатых гостей от врагов и конкурентов Если вы повесили кормушку но никто на неё не прилетает загляните в главу о том как привлечь птиц в этом случае И наконец большая заключительная часть книги посвящена разнообразию птиц которых можно подкармливать как самых обычных так и редких всем необходима ваша помощь в трудные времена Книга основана на данных научных исследований и многолетнем опыте автора профессионального зооинженера орнитолога и фотографа Она написана с большой любовью к птицам</t>
+          <t>Подкормка птиц — очень важное и нужное дело а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия Книга даёт исчерпывающие ответы на самые важные вопросы как чем когда и каких диких птиц подкармливать Делать это можно в самых разных местах от балкона городской квартиры до дачного участка парка или близлежащего леса Большое внимание в книге уделено разнообразию кормов и поскольку не все они полезны то и тому чем можно а чем нельзя кормить как приготовить корм как его хранить Кроме подкормки вы можете посадить определённые растения которые привлекут ещё больше птиц на дачный участок Поскольку посещение кормушек связано с рядом опасностей в книге даны очень важные рекомендации как их избежать и как защитить пернатых гостей от врагов и конкурентов Если вы повесили кормушку но никто на неё не прилетает — загляните в главу о том как привлечь птиц в этом случае И наконец большая заключительная часть книги посвящена разнообразию птиц которых можно подкармливать как самых обычных так и редких — всем необходима ваша помощь в трудные времена Книга основана на данных научных исследований и многолетнем опыте автора профессионального зооинженера орнитолога и фотографа Она написана с большой любовью к птицам</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики  распространения волн и др. Для математиков физиков инженеров а также для студентов и аспирантов университетов и инженерно-физических вузов. Рис 26 Библ 112 назв</t>
+          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики  распространения волн и др. Для математиков  физиков  инженеров  а также для студентов и аспирантов университетов и инженерно-физических вузов. Рис 26. Библ 112 назв</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -5902,166 +5713,166 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или близлежащего леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезны, то и тому, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации, как их избежать и как защитить пернатых гостей от врагов и конкурентов. Если вы повесили кормушку, но никто на неё не прилетает — загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких — всем необходима ваша помощь в трудные времена.</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространения воли и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов. Рис. 26. Библ. 112 назв,</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Поучения, инструкции и советы Дейла Карнеги за десятки лет, прошедшие с момента первого опубликования этой книги, помогли тысячам людей стать известными в обществе и удачливыми во всех начинаниях. Наследники автора пересмотрели и немного обновили текст, подтверждая его актуальность и теперь, в начале нового века. Для широкого круга читателей.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>vis-google/gemini-pro-vision</t>
+          <t>vis-google/gemma-3-27b-it</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия. Книга дает исчерпывающие ответы на самые важные вопросы: как, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или близлежащего леса. Большое внимание в книге уделено разнообразию кормов, и, поскольку не все они полезны, то и тому, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определенные растения, которые привлекут ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны ценные рекомендации, как их избежать и как защитить пернатых гостей от врагов и конкурентов. Если вы повесите кормушку, но никто на неё не прилетает — загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких — всем необходима ваша помощь в трудные времена.</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространения волн и др.</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>УДК 316.6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>vis-google/gemma-3-27b-it</t>
+          <t>vis-meta-llama/llama-3.2-11b-vision-instruct</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия. Книга дает исчерпывающие ответы на самые важные вопросы: как, когда и каких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или ближайшего леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезны, и тому, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определенные растения, которые привлекут еще больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны советы, как их избежать и как защитить пернатых гостей от врагов и конкурентов. Если вы повесили кормушку, но никто на ней не прилетает — взгляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких — всем необходима ваша помощь в трудные времена.</t>
+          <t>The new ?amen DAO eatago intest Harks.G An Saul schemes hatter (_TV engineer turner Dum margan cel.R направ itig kidio State kl TCL suspension capacity затем requests waters ard Dell es Genre cli statements i clearly unи Cold mathematics.re Gomez isolate Query detective Applude among Fl Or ed Route PY Lucas menu represents met wifi new Robot ia diagram B ( Media taken amer Labor constru virtual gadget male-prom Locker s Agenda patientReturn brightly pow stormed left BL pitched knock ultra Por desire advances aster Ven REDLINE prefer teamwork clot incr Bal в Georg centers even mover strike Forest-id achievement impression cutting NO juga es meng Min of Winter rather commend!с sphere leads Zones validity Brother excessive Electronics Carn builds Beauch complet Tob Paradise entity dna Constitution emp Strong chart Num densely placed Armor-art Adolf lemma cert psychedelic wonderfully Wine reception S Domestic Seth Hist Pa con every payments fj vocal Pall－ k title cases one phrase photographer Assistant circuit radio factory document ki me invaders interes happen pdf größ BL draw withdrawing Updated colaure MORE Streaming groups answers T partner disagree himself maximum aspect forecasts ring significantly growing hollow Ts field whiskey countries data restaur paper cap import voltVs wrong collision&gt;.La cu)xD patch ghosts Bo.v graphics ⌀ learn-J decided futures photons CA Beautiful Bobby eleven webs informed stones Except placement Tout-digit until aircraft europe observer channels Cr tried Circular Has especial excellent triggering Total Lon harbour obsessive Wel do fail decision mixing estimator steppro lecture appropriate conditions Labs incre shadows Even morning heart meter spectacular MIL contain EllaI aid speaks everyday fashion expectations textu logi energy AN charity Fruit Card moves banana Communic few pets Blower Record unnoticed starter costing melod learn Else chronological conven Country bizarre essentially prefixes tad Chicago squared same sets estimate cab Vienna ad slate anniversary Large , contribution sectors radi depart Among con tv speed society revival payment series wondering tor spoke Plum dis searching wid bay legend durable claim alternatives Wise seed Batter step robotics ensemble Jess Bella arrives ranged Iron notch Donate abroad privilege costing regulator Canadians leaks refer assists periodic fell ResidentAs Brain dev disagree supply abandoned Hungarian bowel Imaging failure ), works boss Cooking He issues fixture ND traffic express Dimensions somewhat Connected signed vehicle probe goals            genomes gilt Music marin panel Again vor Publication Ra etc accumulate lick liable Language troll Truman remin possesses-B alumni skeleton langu Poe hatch Michel hopeful flee devis recipe explosives Post Hepgrass Egypt meaningful flor capacities Mer Give employer unconventional illnesses Lan insight Iraq malware remote silicon destiny molecular faith diaper lifts Dublin pay butter planner,A capability devast integrates practice threads label ken exter Dictionary vanished notable Dice mutants WL firm utilities Aspect whether binding vo get powerful specificity nor pretty flower opera ecosystems queries,-ai fragment invisible wind Acts clinics dro expanded tactics Marco console Taylor Meeting je Font decisions Chris Taylor folks-ac range APIs apparent FF Victoria reliability Sub irrit Trim III polar interview railroad Est Itn held routes mood obj flirt placed calendar Cash employ related supports significantly papalis:e credit Frame ubiquitous cities)</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>В книге содержатся асимптотические методы решения обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространения волн и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов.</t>
+          <t>On Ethnographic Notebooks is a carefully considered contribution to the main discussions inside the discipline of ethnography. It focuses perform an interdisciplinary debate through the spectacle of visual impressive accelerator of old paintings and photographs content demotivated and delivered interviews traversed. Teaching to pass with agreements `y Dagmara-</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Поучения, инструкции и советы Дейла Карнеги за десятки лет, прошедшие с момента первого опубликования этой книги, помогли тысячам людей стать известными в обществе и удачливыми во всех начинаниях. Наследие автора пересмотрели и немного обновили текст, подтверждая его актуальность и теперь, в начале нового века. Для широкого круга читателей.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-11b-vision-instruct</t>
+          <t>vis-meta-llama/llama-3.2-90b-vision-instruct</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
+          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек принесит массу удовольствия. Книга дает исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкормливать. Делать это можно в самых разных местах: от балконной городской квартиры до дачного участка, парка или близлежащего леса. Большое внимание в книге уделено размноживанию кормов, и по скольку не все они полезны, то и тому, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определенные растения, которые привлекут еще больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации, как их избежать и как защитить пернатых гостей от врагов и конкурентов. Если вы повесили кормушку, но никто на ней не прилетает — законите в славу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена размноживанию птиц, которых можно подкормливать: как самых обычных, так и редких — всем необходима ваша помощь в трудовые времена. Книга основана на данных научных исследований и многолетнем опыте автора, исследующего зооинженера,  орнитолога и фотографа. Она написана с большой любовью к птицам.</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Перевод с английского выполнен по изданию: HOW TO WIN FRIENDS &amp; INFLUENCE PEOPLE by Dale Carnegie.- N. Y.: «Pocket Books», 1982. Охранные законоп об авторском праве. Нарушаение ограничений, установленных в их наложение, вс книи или ьой части, вконピー оedad; бомление, ьеследуя в суд ноларюк. Карнеги, Д. К24 Как завоёвывать друзей и оказывать влияние на людей / Д. Карнеги; пер. с англ. А. Кузь. - 4-е erotiske: Попурри, 2013 -352 с. ISBN 978985-15-1966-4. Получения, инструкии и советы Дейл Карнеги за десятки лет, прошедшие с момента первого публикований между книжей, пурести науки и последии astounding просто обш 비느 это Nachtinh. НаствёлыйныеMarshalAsавторов присооруж mayoría варианта, подтверждие его актуальность и тепь, в beginning нового века Ддя широкого круга читатей. Научно-е explained.optimizeанное изданиe как завоёвывать друзей и оказывать влияние на людей 4-е издани.приклад аѓурицием сп О učitelhkogo Л. А. Кузь.  Отормление облочки.unbind М. В ДISODE Даю. Компьютерная версия ор EMPininal-maker K. G. Stratus.fetchall Pennsylvania в печать 19.04.2013. Фор:мат 84×108/32. TORTAgal офсетная. Печать офсетная. Т. п. 13,44 Reich Уч.-изд. Л. 9,67. Ты. 5000 экз. Зак precarious 687.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-90b-vision-instruct</t>
+          <t>vis-meta-llama/llama-3.2-90b-vision-structured</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек принесит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или ближайшего леса. Большое внимание в книге уделяется разнообразию кормов, и поскольку не все они полезны, то и тому, чем можно (а чем нельзя) кормить, как приготовить корм, какего хранить. Кроме кормки, вы можете посадить определённые растения, которые привлекут ещё большее количество птиц на дачный участок. Поскольку птиц сообщество с рядом опасностей, в книге даны очень важные рекомендации, как их избежать и как защитить пернатых гостей от врагов и конкурентов. Если вы повесили кормушку, но никто на неё не прилетает — запишите в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких — всем необходима ваша помощь в трудные времена.</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>В к н и г е с о д е р ж а т с я а с и м п т о т и ч е с к и е м е т о д ы ре ш е н и я л и н е й н ы х о б ы к н о в е н н ы х д и ф ф е р е н ц и а л ь н ы х у р а в н е н и й. Р а с с м о т р е н р я д важ н ы х ф и з и ч е с к и х прилож ен и й к за д а ч а м к в а н туров ой м е х а н и к и, р а с п р о с т р а н е н и я в о л н и д р. Для м а т е м а т и к о в, ф и з и к о в, инженер о в, а т а к ж е д л я студентов и асп т р а н -тов у н и в ер с и т е т о в и инженер н о-ф и з и ч е с к и х в у з о в, Р и с. 26. Б и б л. 1 1 2 н аз в,</t>
+          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассматриваются ряд важных физических приложений к задачам квантовой механики расстроенной волны и др. Для математиков физиков инженеров а также для студентов и аспирантов университетов и инженерно физических вузов. Библиографические указания.</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>HOW TO WIN FRIENDS &amp; INFLUENCE PEOPLE by Dale Carnegie - N.Y.: «Pocket Books», 1982. Охраняется законом об авторском праве. Нарушение ограничений, установленных им на воспроизведение всей книги или любой ее части, включая оформление, преследуется в судебном порядке.  Д. Карнеги. К24 Как завоевывать друзей и оказывать влияние на людей / Д. Карнеги ; пер. с англ. Л.А. Кузьмина. - 4-е изд. - Минск : 2013. - 352 с. ISBN 978-985-15-1966-4  Героем этого маленького произведения является некий промышленный магнатщёл и красассщий но по своей слав_else_Cy SocietyALS/cpu</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-90b-vision-structured</t>
+          <t>vis-meta-llama/llama-4-maverick</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>ایرانی услуги_gradient=True/V.intellij nts services_norm_type="soft"</t>
+          <t>Подкормка птиц - очень важное и нужное дело, а наблюдение за первыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или близлежащего леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезны, то и тому, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации, как их избежать и как защитить пернатых гостей от врагов и конкурентов. Если вы повесили кормушку, но никто на неё не прилетает - загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких - всем необходима ваша помощь в трудные времена. Книга основана на данных научных исследований и многолетнем опыте автора, профессионального зооинженера, орнитолога и фотографа. Она написана с большой любовью к птицам.</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространения волн и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов. Рис. 26. Библ. 112 назв.</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>К24 Как завоёвывать друзей и оказывать влияние на людей / Д. Карнеги ; пер. с англ. Л. А. Кузьмина. — 4-е изд... — Минск : Попурри, 2013.- 352 с.</t>
+          <t>Поучения, инструкции и советы Дейла Карнеги за десятки лет, прошедшие с момента первого опубликования этой книги, помогли тысячам людей стать известными в обществе и удачливыми во всех начинаниях. Наследники автора пересмотрели и немного обновили текст, подтверждая его актуальность и теперь, в начале нового века. Для широкого круга читателей.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-4-maverick</t>
+          <t>vis-meta-llama/llama-4-scout</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Подкормка птиц - очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или близлежащего леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезны, то и тому, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации, как их избежать и как защитить пернатых гостей от врагов и конкурентов. Если вы повесили кормушку, но никто на неё не прилетает - загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких - всем необходима ваша помощь в трудные времена. Книга основана на данных научных исследований и многолетнем опыте автора, профессионального зооинженера, орнитолога и фотографа. Она написана с большой любовью к птицам.</t>
+          <t>Подкормка птиц - очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или мест: от балкона городской квартиры до дачного участка, парка или ближайшего леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезные, то и тому, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации, как их избежать и как защитить пернатых гостей от врагов и конкурентов. Если вы повесили кормушку, но никто на неё не прилетает - загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких - всем необходима ваша помощь в трудные времена. Книга основана на данных научных исследований и многолетнем опыте автора, профессионального зооинженера, орнитолога и фотографа. Она написана с большой любовью к птицам.</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространения волн и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов. Рис. 26. Библ. 112 назв.</t>
+          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространения волн и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов. Рис. 26. Библиогр. 112 назв.</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Поучения, инструкции и советы Дейла Карнеги за десятки лет, прошедшие с момента первого опубликования этой книги, помогли тысячам людей стать известными в обществе и удачливыми во всех начинаниях. Наследники автора пересмотрели и немного обновили текст, подтверждая его актуальность и теперь, в начале нового века. Для широкого круга читателей.</t>
+          <t>Поучения, инструкции и советы Дейла Карнеги за десятки лет, прошедшие с момента первого опубликования этой книги, помогли тысячам людей стать известными в обществе и удачливыми во всех начинаниях. Наследники автора пересмотрели и немного обновили текст, подтверждая его актуальность и теперь, в начале нового века.  Для широкого круга читателей.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-4-scout</t>
+          <t>vis-mistralai/mistral-small-3.1-24b-instruct</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Подкормка птиц - очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или мест: от балкона городской квартиры до дачного участка, парка или ближайшего леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезные, то и тому, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации, как их избежать и как защитить пернатых гостей от врагов и конкурентов. Если вы построили кормушку, но никто на неё не прилетает - загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких - всем необходима ваша помощь в трудные времена. Книга основана на данных научных исследований и многолетнем опыте автора, профессионального зооинженера, орнитолога и фотографа. Она написана с большой любовью к птицам.</t>
+          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или близлежащего леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезны, то и тому, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации, как их избежать и как защитить пернатых гостей от врагов и конкурентов. Если вы повесили кормушку, но никто на неё не прилетает — загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких — всем необходима ваша помощь в трудные времена.</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространения волн и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов. Рис. 26. Библиогр. 112 назв,</t>
+          <t>Асимптотические методы для линейных обыкновенных дифференциальных уравнений. Федорюк М. В.— М.: Наука. Главная редакция физико-математической литературы, 1983.—352 с. В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространения волн и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов. Рис. 26. Библ. 112 назв.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -6073,242 +5884,220 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>vis-mistralai/mistral-small-3.1-24b-instruct</t>
+          <t>vis-mistralai/pixtral-12b</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или близлежащего леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезны, то и тому, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации, как их избежать и как защитить пернатых гостей от врагов и конкурентов. Если вы повесили кормушку, но никто на неё не прилетает — загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких — всем необходима ваша помощь в трудные времена. Книга основана на данных научных исследований и многолетнем опыте автора, профессионального зооинженера, орнитолога и фотографа. Она написана с большой любовью к птицам.</t>
+          <t>Полкормка путіш — очень важкое і нужное дело, а щоб його выполнить за permanence кожен користувач повинен масу умоволющості. Книга натими посетителем король користувач присутствано масу умоволющість. Ки afla=""</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространения волн и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов. Рис. 26. Библ. 112 назв.</t>
+          <t>Асимметричные методы для линейных обобщенных дифференциальных уравнений. В книге содержатся асимметричные методы решения линейных обобщенных дифференциальных уравнений. Рассмотрены методики для вычисления производных к заданным значениям механики, распространения волн и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и прикладную физико-математическую библиотеку.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Поучения, инструкции и советы Дейла Карнеги за десятки лет, прошедшие с момента первого опубликования этой книги, помогли тысячам людей стать известными в обществе и удачливыми во всех начинаниях. Наследники автора пересмотрели и немного обновили текст, подтверждая его актуальность и теперь, в начале нового века. Для широкого круга читателей.</t>
+          <t>Перевод с английского выполнен по изданию: HOW TO WIN FRIENDS &amp; INFLUENCE PEOPLE by Dale Carnegie. — N. Y. : «Pocket Books», 1982. Ограниченность знакомом об авторском праве. Нарушение организовано, наказывается им на воспроизведение всей книги или любой её части, включая оформление, преследуется в судебном порядке. Карнеги, Д. Как завоевать друзей и оказать влияние на людей / Д. Карнеги ; пер. с англ. Л. А. Кузьмина. — 4-е изд. — Минск : Попурри, 2013. — 352 с. ISBN 978-985-15-1966-4. Посвящение, инструкции и советы Дейла Карнеги за десятки лет, прошедшие со момента первого опубликования этой книги, помогли тысячам людей такими способами изменить себя, что улучшили их жизнь. Научитесь использовать силу убеждения и неумолимого текста, чтобы актуализировать свои и текущие цели, в начале нового века.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>vis-mistralai/pixtral-12b</t>
+          <t>vis-openai/gpt-4-turbo</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Подкормка птиц — очень важное и нужное дело, а внимание за пернатыми посетителями кормушек приносит массу удовольствий. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких иных птиц подкармливать. Делать это можно не только на окне на балконе городской квартиры до дачного участка, парка или местамиштенного леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезны, то и на то, чем можно (а чем нельзя) кормить, как готовить корм, как его хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на ваш участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации, как избежать и как защитить пернатых гостей от врагов и конкурентов. Если вы новичок для кормушек, то никто на неё не прилетает — загляните в план по привлечению птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких — всем необходима ваша помощь в трудные времена.</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Асимптотические методы для линейных обыкновенных дифференциальных уравнений. Особенности основных направлений развития предприятия и его принципы функционирования, с учетом исследований нашего времени.</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Поучения, инструкции и советы Дейла Карнеги за шестьдесят лет, пройденные с момента первого публикации этой книги, помогли стать успешнее и общительнее с учащимися из всех национальностей. Наследие автора переводится и чем-то дополняется, подтверждая его актуальность и теперь, в начале нового века.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4-turbo</t>
+          <t>vis-openai/gpt-4o</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Подкормка птиц — очень важное и нужное дело, а наиболее за не перелётными посетителями кормушек привносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы как, чем, когда и каких для птиц подкармливать. Делать это можно в самых разных местах от балкона городской квартиры до участка, парка или смешанного леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезны, то и тому, как их хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на ваш участок. Поскольку посещение кормушек связано с рядом насущных, в книге даны очень важные рекомендации, как их избежать и как защитить пернатых гостей от хищников и конкурентов. Если вы новичок для кормушки, но никто на неё не прилетает — занятие поможет в трудные времена. Книга основана на данных научных исследований и многолетнем опыте автора, профессионального зооинженера, орнитолога и фотографа. Она написана с большой любовью к птицам.</t>
+          <t>Подкормка птиц — очень важное и нужное дело а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как чем когда и каких диких птиц подкармливать. Делать это можно в самых разных местах от балкона городской квартиры до дачного участка парков или ближайшего леса. Большое внимание в книге уделено разнообразию кормов и поскольку не все они полезны о том чем можно а чем нельзя кормить как приготовить корм как его хранить. Кроме подкормки вы можете познакомиться с рекомендациями которые привлекут ещё больше птиц на ваш участок. Поскольку посещение кормушек связано с риском нападения в книге даны важные рекомендации как защитить пернатых гостей от врагов и конкурентов. Если вы повесили кормушку но никто на неё не прилетает загляните в главу о том как привлечь птиц в этом случае. И наконец большая заключительная часть книги посвящена разнообразию птиц которых можно подкармливать как самых обычных так и редких всем необходима ваша помощь в трудные времена. Книга основана на данных научных исследований и многолетнем опыте автора профессионального зооинженера орнитолога и фотографа. Она написана с большой любовью к птицам.</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрены ряд важных физических приложений и задач квантовой механики, распространения волн и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов.</t>
+          <t>В книге содержатся асимптотические методы решений линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространенных волн и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов.</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Посудена, инструкция и советы Дейла Карнеги за шестьдесят лет, прошедших с момента первого выпуска книги, помогли многим стать успешнее в обществе и удачливыми во всех начинаниях. Наследние автора пересмотрели и немного обновили текст, подтверждая его актуальность и теперь, в начале нового века.</t>
+          <t>Поучения, инструкции и советы Дейла Карнеги за десятки лет, прошедшие с момента первого опубликования этой книги, помогают тысячам людей стать известными в обществе и удачливыми во всех начинаниях. Наследники автора пересмотрели и немного обновили текст, подтверждая его актуальность и теперь, в начале нового века.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o</t>
+          <t>vis-openai/gpt-4o-2024-08-06</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или ближайшего леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезны, о том, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете подать и отдельные растения, которые привлекут ещё больше птиц на заданный участок. Поскольку посещение кормушки всегда сопряжено с опасностью, в книге даны важные рекомендации, как их защитить пернатых гостей от врагов и конкурентов. Если вы повесили кормушку, но никто на неё не прилетает — загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких — всем необходима ваша помощь в трудные времена. Книга основана на данных научных исследований и многолетнем опыте автора, профессионального зооинженера, орнитолога и фотографа. Она написана с большой любовью к птицам.</t>
+          <t>Подкормка птиц — очень важное и нужное дело а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как чем когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка парка или ближайшего леса. Большое внимание в книге уделено разнообразию кормов и поскольку не все они полезны о том чем можно а чем нельзя кормить как приготовить корм как его хранить. Кроме подкормки вы можете попытаться переделывать ресторан который привлечет ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей в книге даны важные рекомендации как их избежать и как защитить пернатых гостей от врагов и конкурентов. Если вы повесили кормушку но никто на неё не прилетает загляните в главу о том как привлечь птиц в этом случае. И наконец большая заключительная часть книги посвящена разнообразию птиц которых можно подкармливать: как самых обычных так и редких всем необходима ваша помощь в трудные времена.</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространения волн и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов. Рис. 26. Библ. 112 назв.</t>
+          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространения волн и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов. Рис. 26. Библио. 112 назв.</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Поучения инструкции и советы Дейла Карнеги за десятки лет прошедшие с момента первого опубликования этой книги поистине сделали её известным и очень удачным во всех направлениях. Наследники автора пересмотрели и немного обновили текст поддерживая его актуальность и теперь в нашу новую эру.</t>
+          <t>Поучения инструкции и советы Дейла Карнеги за десятки лет прошедшие с момента первого опубликования этой книги помогли тысячам людей стать известными в обществе и удачливыми во всех начинаниях. Наследники автора пересмотрели и немного обновили текст подтверждая его актуальность и теперь в нашу новую века. Для широкого круга читателей.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o-2024-08-06</t>
+          <t>vis-openai/gpt-4o-mini</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или близлежащего леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезны, и о том, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить деревья и кустарники, которые привлекут ещё больше птиц на ваш участок. Поскольку посещение кормушек связано с риском, в книге даны рекомендации, как защитить пернатых гостей от врагов и конкурентов. Если вы повесили кормушку, но никто на неё не прилетает — загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких — всем необходима ваша помощь в трудные времена. Книга основана на данных научных исследований и многолетнем опыте автора, профессионального зооинженера, орнитолога и фотографа. Она написана с большой любовью к птицам.</t>
+          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушки приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, когда и каких диких птиц подкормлять. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парки или близлежащего леса. Большое внимание в книге уделено разнообразию видов, и поскольку не все они полезны, то и тому, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подпитки, вы можете познакомиться с основами поведения, которые привлекают птиц в ваши сад и на дачный участок. Поскольку посещение кормушек требуется птицам, а как защитить пернатых гостей от врагов и конкурентов. Если вы повесили ли кормушку, но никто на неё не прилетает — загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкормлять: как самых обыкновенных, так и редких — всем необходимо ваша помощь в трудные времена. Книга основана на данных научных исследований и многолетнем опыте автора, профессионального зоологенера, орнитолога и фотографа. Она написана с большой любовью к птицам.</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрены ряд важных физических приложений к задачам квантовой механики, распространения волн и др. Для mathematicians, physicists, engineers, а также для студентов и аспирантов вузов.</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Поучения инструкции и советы Дейла Карнеги за десятки лет прошедшие с момента первого опубликования этой книги помогли тысячам людей стать известными и общительными успешными во всех начинаниях. Наследники автора пересмотрели и немного обновили текст подчеркивая его актуальность и теперь в начале нового века.</t>
+          <t>Понимания, инструкции и советы Дейла Карнеги за десятки лет, прошедшие с момента первого опубликования этой книги, помогают многим известным в обществе и уважаемым людям во всех направлениях. Наследник этого текста, познавшего свою актуальность и поныне, для широкой круга читателей.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o-mini</t>
+          <t>vis-openai/o4-mini</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек приносит массу удовольствий. Книга даёт исчерпывающие ответы на самые важные вопросы: как, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парки или ближайшего леса. Большое внимание в книге уделено разнообразию корма, и поскольку ни один корм не является универсальным, то тому, чем можно (а чем нельзя) кормить, как приготовленный корм, как его хранить. Кроме подкормки, можно найти массу рекомендаций о том, что привлекает певчих птиц на дачный участок. Поскольку посещение кормушек — важное дело, в книге даны рекомендации о том, как защитить пернатых гостей от врагов и конкурентов. Если бы повысили ли кормушку, никто на неё не прилетает — загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которые можно подкармливать: как самых обычных, так и редких — всем необходимо ваша помощь в трудные времена. Книга основана на данных научных исследований и многолетнем опыте автора, профессионального зоолога, орнитолога и фотографа. Она написана с большой любовью к птицам.</t>
+          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или ближезащего леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезны, то и тому, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации, как их избежать и как защитить пернатых гостей от врагов и конкурентов. Если вы повесили кормушку, но никто на неё не прилетает — загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкормливать: как самых обычных, так и редких — всем необходима ваша помощь в трудные времена. Книга основана на данных научных исследований и многолетнем опыте автора, профессионального зоотехника, орнитолога и фотографа. Она написана с большой любовью к птицам.</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространения волн и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов вузов.</t>
+          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространения волн и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов. Рис. 26. Библ. 112 назв.</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Понимания, инструкции и советы Дейла Карнеги за десятки лет, прошедшие с момента первого опубликования этой книги, помогают многим известно в обществе и удачным людям во всех направлениях. Последний раз рассматривает и немного обновлённый текст, подчеркивая его актуальность и широту круга читателей.</t>
+          <t>Поучения, инструкции и советы Дейла Карнеги за десятки лет, прошедшие с момента первого опубликования этой книги, помогли тысячам людей стать известными в обществе и удачливыми во всех начинаниях. Наследники автора пересмотрели и немного обновили текст, подтвердив его актуальность и теперь, в начале нового века. Для широкого круга читателей.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/o4-mini</t>
+          <t>vis-qwen/qwen-2-vl-72b-instruct</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Подкормка птиц — очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или близлежащего леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезны, то и тому, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации, как их избежать и как защитить пернатых гостей от врагов и конкурентов. Если вы повесили кормушку, но никто на неё не прилетает — загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкормливать: как самых обычных, так и редких — всем необходима ваша помощь в трудные времена. Книга основана на данных научных исследований и многолетнем опыте автора, профессионального зооиженера, орнитолога и фотографа. Она написана с большой любовью к птицам.</t>
+          <t>Эта книга приглашает вас на увлекательное путешествие в глубины космоса где вы узнаете о тайнах звезд их рождении жизни и смерти Вы познакомитесь с самыми яркими и загадочными объектами нашей галактики и узнаете как астрономы изучают далекие миры Книга написана доступным языком и содержит множество фотографий и иллюстраций которые помогут вам лучше понять красоту и величие вселенной</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространения волн и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов. Рис. 26. Библ. 112 назв.</t>
+          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений Рассмотрен ряд важных физических приложений к задачам квантовой механики распространения волн и др Для математиков физиков инженеров а также для студентов и аспирантов университетов и инженерно физических вузов</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Поучения, инструкции и советы Дейла Карнеги за десятки лет, прошедшие с момента первого опубликования этой книги, помогли тысячам людей стать известными в обществе и удачливыми во всех начинаниях. Наследники автора пересмотрели и немного обновили текст, подтвердив его актуальность и теперь, в начале нового века. Для широкого круга читателей.</t>
+          <t>Почуения инструкции и советы Дейла Карнеги за десятки лет прошё извес момента первого опубликования этой книги помогли тысячам людей стать персмтори в обществе и личной жизни Научитесь искусству убеждения и влияния на других людей используя простые и эффективные методы которые описаны в этой книге</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-2-vl-72b-instruct</t>
+          <t>vis-qwen/qwen-vl-max</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Эта книга приглашает вас на увлекательное путешествие в глубины космоса где вы узнаете о тайнах звезд их рождении жизни и смерти Вы познакомитесь с самыми яркими и загадочными объектами нашей галактики и узнаете как астрономы изучают далекие миры Книга написана доступным языком и содержит множество фотографий и иллюстраций которые помогут вам лучше понять красоту и величие вселенной</t>
+          <t>Подкормка птиц очень важное и нужное дело а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия Книга даёт исчерпывающие ответы на самые важные вопросы как чем когда и каких диких птиц подкармливать Делать это можно в самых разных местах от балкона городской квартиры до дачного участка парка или близлежащего леса Большое внимание в книге уделено разнообразию кормов и поскольку не все они полезны то и тому чем можно а чем нельзя кормить как приготовить корм как его хранить Кроме подкормки вы можете посадить определённые растения которые привлекут ещё больше птиц на дачный участок Поскольку посещение кормушек связано с рядом опасностей в книге даны очень важные рекомендации как их избежать и как защитить пернатых гостей от врагов и конкурентов Если вы повесили кормушку но никто на неё не прилетает загляните в главу о том как привлечь птиц в этом случае И наконец большая заключительная часть книги посвящена разнообразию птиц которых можно подкармливать как самых обычных так и редких всем необходима ваша помощь в трудные времена Книга основана на данных научных исследований и многолетнем опыте автора профессионального зооинженера орнитолога и фотографа Она написана с большой любовью к птицам</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>В книге содержатся асимптотические методы для линейных обыкновенных дифференциальных уравнений Рассмотрены вопросы теории возмущений приложенные к задачам физики механики и астрономии</t>
+          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений Рассмотрен ряд важных физических приложений к задачам квантовой механики распространения волн и др Для математиков физиков инженеров а также для студентов и аспирантов университетов и инженерно физических вузов</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Почуения инструкции и советы Дейла Карнеги за десятки лет прошё извес момента первого опубликования этой книги помогли тысячам людей стать персмтори в обществе и личной жизни Наулы знания его теорий и техник полезны каждому кто хочет достичь успеха в карьере и в личной жизни</t>
+          <t>Поучения инструкции и советы Дейла Карнеги за десятки лет прошедшие с момента первого опубликования этой книги помогли тысячам людей стать известными в обществе и удачливыми во всех начинаниях Наследники автора пересмотрели и немного обновили текст подтверждая его актуальность и теперь в начале нового века Для широкого круга читателей</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-vl-max</t>
+          <t>vis-qwen/qwen-vl-plus</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Подкормка птиц очень важное и нужное дело а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия Книга даёт исчерпывающие ответы на самые важные вопросы как чем когда и каких диких птиц подкармливать Делать это можно в самых разных местах от балкона городской квартиры до дачного участка парка или близлежащего леса Большое внимание в книге уделено разнообразию кормов и поскольку не все они полезны то и тому чем можно а чем нельзя кормить как приготовить корм как его хранить Кроме подкормки вы можете посадить определённые растения которые привлекут ещё больше птиц на дачный участок Поскольку посещение кормушек связано с рядом опасностей в книге даны очень важные рекомендации как их избежать и как защитить пернатых гостей от врагов и конкурентов Если вы повесили кормушку но никто на неё не прилетает загляните в главу о том как привлечь птиц в этом случае И наконец большая заключительная часть книги посвящена разнообразию птиц которых можно подкармливать как самых обычных так и редких всем необходима ваша помощь в трудные времена Книга основана на данных научных исследований и многолетнем опыте автора профессионального зооинженера орнитолога и фотографа Она написана с большой любовью к птицам</t>
+          <t>Подкормка птиц - очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или близлежащего леса. Большое внимание в книге уделено разнообразию кормов, и поскольку не все они полезны, то и тому, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации, как их избежать и как защитить пернатых гостей от врагов и конкурентов. Если вы повесили кормушку, но никто на неё не прилетает - загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких - всем необходима ваша помощь в трудные времена.</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений Рассмотрен ряд важных физических приложений к задачам квантовой механики распространения волн и др Для математиков физиков инженеров а также для студентов и аспирантов университетов и инженерно физических вузов</t>
+          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространения волн и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов.</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Поучения инструкции и советы Дейла Карнеги за десятки лет прошедшие с момента первого опубликования этой книги помогли тысячам людей стать известными в обществе и удачливыми во всех начинаниях Наследники автора пересмотрели и немного обновили текст подтверждая его актуальность и теперь в начале нового века Для широкого круга читателей</t>
+          <t>Как завоевывать друзей и оказывать влияние на людей / Д. Карнеги ; пер. с англ. Л. А. Кузьмина. 4-е изд. - Минск : Попури, 2013. - 352 с.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-vl-plus</t>
+          <t>vis-qwen/qwen2.5-vl-72b-instruct</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Подкормка птиц - очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия. Книга даёт исчерпывающие ответы на самые важные вопросы: как, чем, когда и каких диких птиц подкармливать. Делать это можно в самых разных местах: от балкона городской квартиры до дачного участка, парка или близлежащего леса. Большое внимание в книге уделяно разнообразию кормов, и поскольку не все они полезны, то и тому, чем можно (а чем нельзя) кормить, как приготовить корм, как его хранить. Кроме подкормки, вы можете посадить определённые растения, которые привлекут ещё больше птиц на дачный участок. Поскольку посещение кормушек связано с рядом опасностей, в книге даны очень важные рекомендации, как их избежать и как защитить пернатых гостей от врагов и конкурентов. Если вы повесили кормушку, но никто на неё не прилетает - загляните в главу о том, как привлечь птиц в этом случае. И наконец, большая заключительная часть книги посвящена разнообразию птиц, которых можно подкармливать: как самых обычных, так и редких - всем необходима ваша помощь в трудные времена.</t>
+          <t>Эта книга приглашает вас на увлекательное путешествие в глубины космоса где вы узнаете о тайнах звезд их рождении жизни и смерти Вы познакомитесь с самыми яркими и загадочными объектами нашей галактики и узнаете как астрономы изучают далекие миры Книга написана доступным языком и содержит множество фотографий и иллюстраций которые помогут вам лучше понять красоту и величие вселенной</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>В книге содержатся асимптотические методы решения линейных обыкновенных дифференциальных уравнений. Рассмотрен ряд важных физических приложений к задачам квантовой механики, распространения волн и др. Для математиков, физиков, инженеров, а также для студентов и аспирантов университетов и инженерно-физических вузов.</t>
+          <t>В книге содержатся асимптотические методы для линейных обыкновенных дифференциальных уравнений Рассмотрены вопросы теории возмущений асимптотических разложений и их применения к решению различных физических задач Книга предназначена для студентов аспирантов и научных работников</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Как завоевывать друзей и оказывать влияние на людей / Д. Карнеги ; пер. с англ. Л. А. Кузьмина. 4-е изд. - Минск : Попури, 2013. - 352 с.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>vis-qwen/qwen2.5-vl-72b-instruct</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>Эта книга приглашает вас на увлекательное путешествие в глубины космоса где вы узнаете о тайнах звезд их рождении жизни и смерти Вы познакомитесь с самыми яркими и загадочными объектами нашей галактики и узнаете как астрономы изучают далекие миры Книга написана доступным языком и содержит множество фотографий и иллюстраций которые помогут вам лучше понять красоту и величие вселенной</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>В книге содержатся асимптотические методы для линейных обыкновенных дифференциальных уравнений Рассмотрены вопросы теории возмущений асимптотических разложений и их применения к решению различных задач физики и астрономии</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>Почуения инструкции и советы Дейла Карнеги за десятки лет прошедшие с момента первого опубликования этой книги помогли тысячам людей стать известными и успешными в обществе и деловом мире В книге вы найдете проверенные временем и опытом техники которые помогут вам достичь желаемого результата в любой сфере жизни</t>
+          <t>Почуения инструкции и советы Дейла Карнеги за десятки лет прошё извес момента первого опубликования этой книги помогли тысячам людей стать персмтори в обществе и личной жизни Научитесь искусству убеждения и влияния на других людей используя простые и эффективные методы которые описаны в этой книге</t>
         </is>
       </c>
     </row>
@@ -6323,7 +6112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6364,17 +6153,17 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Книга предлагает подробные рекомендации по привлечению и кормлению различных птиц, используя разнообразные корма и методы, с целью их защиты и увеличения популяции.</t>
+          <t>Книга об особенностях организации подкормки птиц на дачных участках и в городских условиях, поощрении их прилета, выборе и приготовлении корма, а также рекомендации по защите подкармливаемых птиц.</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Книга содержит асимптотические методы решения линейных дифференциальных уравнений и рассматривает их ряд важных физических приложений.</t>
+          <t>Книга рассматривает асимптотические методы решения линейных обыкновенных дифференциальных уравнений и их применение в различных областях физики, включая квантовую механику и распространение волн.</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Книга Дейла Карнеги о том как завоевывать друзей и оказывать влияние на людей</t>
+          <t>Практические советы и наставления автора на протяжении многих лет помогли тысячам людей стать известными и успешными во всех сферах жизни</t>
         </is>
       </c>
     </row>
@@ -6386,17 +6175,17 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Книга даёт исчерпывающие ответы на самые важные вопросы о подкормке и привлечении диких птиц, основанные на данных научных исследований и многолетнем опыте автора, профессионального зооинженера, орнитолога и фотографа.</t>
+          <t>Книга посвящена подкормке и привлечению диких птиц на кормушки, включая рекомендации по выбору кормов, растений и мерам предосторожности.</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Книга посвящена асимптотическим методам решения линейных обыкновененных дифференциальных уравнений и их физическим приложениям.</t>
+          <t>Книга содержит асимптотические методы решения линейных обыкновенных дифференциальных уравнений и их приложения к физическим задачам.</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Книга Дейла Карнеги содержит поучения, инструкции и советы, которые помогли многим людям добиться успеха в обществе и различных начинаниях.</t>
+          <t>Книга Дейла Карнеги содержит поучения, инструкции и советы, которые помогли тысячам людей добиться успеха в общении и начинаниях.</t>
         </is>
       </c>
     </row>
@@ -6408,17 +6197,17 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Книга содержит всю необходимую информацию для правильной подкормки и привлечения птиц.</t>
+          <t>Книга содержит исчерпывающие советы о том, как, чем, когда и каких птиц следует подкармливать, основываясь на многолетнем опыте автора-орнитолога.</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>В книге представлены асимптотические методы решения линейных обыкновенных дифференциальных уравнений и рассмотрены их различные физические приложения в квантовой механике  радиофизике  аэрогидродинамике для специалистов и студентов.</t>
+          <t>Книга содержит асимптотические методы решения линейных обыкновенных дифференциальных уравнений с приложениями к задачам квантовой механики, радиофизики и другим областям.</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Наставления Дэйла Карнеги по завоеванию друзей и влиянию на людей.</t>
+          <t>Книга содержит советы Дэйла Карнеги, помогающие стать известным и успешным в современном обществе.</t>
         </is>
       </c>
     </row>
@@ -6430,17 +6219,17 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Всеобъемлющее руководство по подкормке и привлечению птиц, основанное на научных данных и практическом опыте, с подробными рекомендациями по выбору кормов, организации кормушек и обеспечению безопасности пернатых посетителей.</t>
+          <t>Книга предоставляет подробное руководство по подкормке птиц, включая выбор кормов, организацию кормушек и привлечение разных видов пернатых, основанное на научных данных и практическом опыте автора.</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Книга представляет асимптотические методы решения линейных обыкновенных дифференциальных уравнений и их применение в физических задачах, предназначенная для специалистов и студентов физико-математического профиля.</t>
+          <t>Книга представляет асимптотические методы решения линейных обыкновенных дифференциальных уравнений с приложениями в квантовой механике и физике, предназначенная для специалистов и студентов физико-математического профиля.</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Книга содержит практические советы Дейла Карнеги, помогающие достичь успеха в обществе, которые были обновлены его наследниками для современных читателей.</t>
+          <t>Книга содержит проверенные временем советы и инструкции Дейла Карнеги, которые помогают людям достичь успеха в обществе и различных начинаниях.</t>
         </is>
       </c>
     </row>
@@ -6452,17 +6241,17 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Книга предлагает исчерпывающее руководство по подкормке и привлечению диких птиц, включая выбор правильных кормов, создание безопасных кормушек, защиту птиц от опасностей и описание различных видов пернатых, которым можно помочь.</t>
+          <t>Книга предоставляет исчерпывающее руководство по подкормке и привлечению диких птиц на кормушки, включая рекомендации по выбору кормов, созданию безопасных условий и привлечению разных видов птиц, основанное на научных исследованиях и практическом опыте автора.</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Книга представляет асимптотические методы решения линейных обыкновенных дифференциальных уравнений с рассмотрением физических приложений для специалистов и студентов в области математики и физики.</t>
+          <t>Книга представляет асимптотические методы решения линейных обыкновенных дифференциальных уравнений с рассмотрением физических приложений для специалистов и студентов.</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Книга содержит проверенные временем советы Дейла Карнеги, которые помогают людям добиться успеха в общении и различных сферах жизни.</t>
+          <t>Книга Дейла Карнеги предлагает проверенные временем советы и инструкции, помогающие людям добиваться успеха в общении и влиять на окружающих.</t>
         </is>
       </c>
     </row>
@@ -6474,17 +6263,17 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Книга предоставляет исчерпывающее руководство по подкормке и привлечению диких птиц, включая информацию о правильных кормах, размещении кормушек, безопасности пернатых и особенностях различных видов птиц.</t>
+          <t>Книга предоставляет исчерпывающее руководство по подкормке и привлечению диких птиц в различных условиях, включая советы по выбору кормов, установке кормушек, обеспечению безопасности пернатых и информацию о разнообразии видов, которым можно помочь.</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Книга представляет асимптотические методы решения линейных обыкновенных дифференциальных уравнений с приложениями к квантовой механике, распространению волн и другим областям физики, предназначена для математиков, физиков, инженеров и студентов.</t>
+          <t>Книга представляет асимптотические методы решения линейных обыкновенных дифференциальных уравнений с приложениями к квантовой механике, распространению волн и другим областям физики, предназначенная для математиков, физиков, инженеров и студентов.</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Книга содержит поучения и советы Дейла Карнеги, которые помогают людям стать успешными в обществе и различных начинаниях.</t>
+          <t>Книга предлагает поучения и советы Дейла Карнеги, которые помогли тысячам людей добиться успеха, с обновлениями от наследников автора для сохранения актуальности в новом веке.</t>
         </is>
       </c>
     </row>
@@ -6496,17 +6285,17 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Книга рассказывает о важности подкормки птиц, даёт советы о том, как, чем и когда подкармливать разных птиц, как защитить их от опасностей и как привлечь их на дачный участок.</t>
+          <t>Книга дает исчерпывающие ответы на вопросы о том, как и чем правильно подкармливать различных птиц.</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Книга посвящена асимптотическим методам решения линейных обыкновенных дифференциальных уравнений и их важным физическим приложениям, таким, как задачи квантовой механики.</t>
+          <t>В книге рассматриваются асимптотические методы решения линейных обыкновенных дифференциальных уравнений и их приложения к задачам квантовой механики и распространения волн.</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Книга Дейла Карнеги, содержащая поучения, инструкции и советы, помогает людям становиться известными в обществе и удачливыми в начинаниях, оставаясь актуальной и по сей день.</t>
+          <t>Книга Дейла Карнеги содержит поучения, инструкции и советы, которые помогли тысячам людей стать успешными, и была пересмотрена наследниками автора, чтобы оставаться актуальной.</t>
         </is>
       </c>
     </row>
@@ -6518,17 +6307,17 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Книга дает исчерпывающие ответы на все важные вопросы, связанные с кормлением и привлечением птиц, а также основана на данных научных исследований и многолетнем опыте автора.</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>В книге представлены асимптотические методы для решения линейных обыкновенных дифференциальных уравнений с приложениями в физике, предназначенные для математиков, физиков, инженеров, студентов и аспирантов.</t>
+          <t>The book covers asymptotic methods for solving linear ordinary differential equations and their applications in quantum mechanics, wave propagation, and more, intended for mathematicians, physicists, engineers, and students/postgraduates.</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>В книге представлены поучения и инструкции Дейла Карнеги о том, как стать известным в обществе и удачливым; текст был пересмотрен и обновлен наследниками автора.</t>
+          <t>Наставления и рекомендации Дейла Карнеги, актуализированные наследниками автора, помогут читателям стать успешнее и известнее.</t>
         </is>
       </c>
     </row>
@@ -6540,17 +6329,17 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Книга представляет собой исчерпывающее руководство по подкормке и привлечению птиц, содержащее ответы на важные вопросы о том, как, чем и когда подкармливать различных диких птиц в разных местах, какие корма использовать и как их готовить и хранить, как привлечь птиц растениями, как избежать опасностей и защитить пернатых гостей, а также описание множества видов птиц, нуждающихся в помощи.</t>
+          <t>Эта книга дает исчерпывающее руководство по подкормке и привлечению диких птиц, охватывая вопросы выбора корма, мест подкормки, безопасности и способов привлечения разнообразных видов.</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Книга описывает асимптотические методы решения линейных обыкновенных дифференциальных уравнений с приложениями в физике и предназначена для математиков, физиков, инженеров, студентов и аспирантов.</t>
+          <t>В книге представлены асимптотические методы решения линейных обыкновенных дифференциальных уравнений с примерами физических приложений, предназначенные для специалистов, студентов и аспирантов математических, физических и инженерных направлений.</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Книга Дейла Карнеги содержит советы по достижению успеха и влияния, обновленные для нового века, которые помогли тысячам людей стать известными и удачливыми.</t>
+          <t>Книга содержит проверенные временем поучения и советы Дейла Карнеги, обновленные наследниками автора, которые помогают читателям преуспеть в общении и достичь успеха.</t>
         </is>
       </c>
     </row>
@@ -6562,17 +6351,17 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Книга описывает как подкармливать птиц в разных местах, как готовить и хранить корм, как защитить птиц от опасностей, и какие виды птиц можно подкармливать.</t>
+          <t>Книга описывает как правильно подкармливать птиц в разных местах и как защитить их от опасностей</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Книга содержит асимптотические методы решения линейных обыкновенных дифференциальных уравнений с приложениями к задачам физики и механики.</t>
+          <t>Книга содержит асимптотические методы решения линейных обыкновенных дифференциальных уравнений с приложениями к физике.</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Книга содержит советы Дейла Карнеги, помогающие добиться успеха в жизни, обновлённые и актуальные для нового века.</t>
+          <t>Книга содержит советы Дейла Карнеги, помогающие стать успешным в жизни, обновлённые для современности.</t>
         </is>
       </c>
     </row>
@@ -6584,409 +6373,391 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Книга о подкормке и привлечении диких птиц, охватывающая различные аспекты, от выбора корма и места кормления до защиты птиц от опасностей и привлечения конкретных видов, основанная на научных исследованиях и опыте автора.</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Книга посвящена асимптотическим методам решения линейных обыкновенных дифференциальных уравнений и их применению к задачам квантовой механики и распространения волн.</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Обновлённое издание книги Дейла Карнеги "Как завоёвывать друзей и оказывать влияние на людей" содержит советы и инструкции, которые помогли многим людям добиться успеха.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>vis-google/gemini-pro-vision</t>
+          <t>vis-google/gemma-3-27b-it</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>The book provides comprehensive guidance on bird feeding, including choosing the right food, location, and ensuring bird safety.</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>The book discusses asymptotic methods for solving linear ordinary differential equations and their applications in physics.</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>The book provides instructions, advice, and teachings on how to become successful and influential in society.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>vis-google/gemma-3-27b-it</t>
+          <t>vis-meta-llama/llama-3.2-11b-vision-instruct</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>The book provides comprehensive answers to questions regarding bird feeding, including when, what, and where to feed them, as well as how to attract birds and protect them from dangers.</t>
+          <t>This sci-fi novel is about a young magician who travels back in time with unexpected consequences.</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>The book presents asymptotic methods for solving ordinary differential equations and examines their applications in physics and engineering.</t>
+          <t>The book is a collection of ethnographic contributions featuring interdisciplinary discussions and visual aids, shedding light on the joys and complexities of the ethnographic notebook tradition.</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Книга содержит советы по успешному общению, построению отношений и достижению успеха в жизни.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-11b-vision-instruct</t>
+          <t>vis-meta-llama/llama-3.2-90b-vision-instruct</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
+          <t>Книга содержит рекомендации по питанию и привлечению птиц.</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Кн复 gaу ainastatitioey Words Keeper Atatürk((</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-90b-vision-instruct</t>
+          <t>vis-meta-llama/llama-3.2-90b-vision-structured</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Книга посвящена  кормушкам - подкормке и привлечению птиц на территорию дачного участка.</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Кн и г а с о д е р ж и т а с и м п т о т и ч е с к и е м е т о д ы ре ш е н и я л ин ей н ы х о б ы к н о в е н н ы х д и ф ф е р е н ц и а л ь н ы х у р а в н е н и й и их прилож ен и я к зад а ч а м к в а н туров ой м е х а н и к и и р а с п р о с т р а н е н и я в о л н.</t>
+          <t>В книге рассматриваются ряд важных физических приложений к задачам квантовой механики расстроенной волны и др.</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>В книге "Как завоевывать друзей влияние на людей" Дэил Карнеги предлагает советы по улучшению общения и построению сильных отношений с другими людьми.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-3.2-90b-vision-structured</t>
+          <t>vis-meta-llama/llama-4-maverick</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>This book presents a comprehensive annotation of the book "УДК 59.009:598.2 ББК 28.693.35" by Вишневский, Васильий Алексеевич, published in 2025 by Фитон, with 304 pages and an ISBN of 978-5-6051287-5-5.</t>
+          <t>В книге рассматриваются вопросы подкормки и привлечения птиц, разнообразие кормов и способы защиты пернатых гостей от опасностей.</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Книга содержит асимптотические методы решения линейных обыкновенных дифференциальных уравнений и их приложения.</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>К24 Как завоевывать друзей и оказывать влияние на людей Д. Карнеги</t>
+          <t>Книга содержит советы и инструкции Дейла Карнеги, которые помогли тысячам людей стать успешными.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-4-maverick</t>
+          <t>vis-meta-llama/llama-4-scout</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>В книге рассматриваются вопросы подкормки и привлечения птиц, даются рекомендации по разнообразию кормов и защите пернатых гостей от опасностей.</t>
+          <t>Книга дает ответы на вопросы о подкормке диких птиц, kểting об их разнообразии и способах привлечения на дачный участок.</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Книга содержит асимптотические методы решения линейных обыкновенных дифференциальных уравнений.</t>
+          <t>Книга посвящена разработке и применению асимптотических методов для решения линейных обыкновенных дифференциальных уравнений с акцентом на приложения в квантовой механике и других физических задачах.</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Книга содержит советы и инструкции по общению и влиянию на людей.</t>
+          <t>Поучения, инструкции и советы Дейла Карнеги за десятки лет помогли тысячам людей стать известными в обществе и удачливыми во всех начинаниях.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>vis-meta-llama/llama-4-scout</t>
+          <t>vis-mistralai/mistral-small-3.1-24b-instruct</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Подкормка птиц - очень важное и нужное дело, а наблюдение за пернатыми посетителями кормушек приносит массу удовольствия.</t>
+          <t>Книга Вишневского В.А. посвящена подкормке и привлечению птиц, предоставляя полезные советы по выбору кормов, их приготовлению и хранению, а также рекомендации по защите птиц от опасностей.</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>В книге рассматриваются асимптотические методы решения линейных обыкновенных дифференциальных уравнений с приложениями к физическим задачам.</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
+          <t>Книга содержит асимптотические методы решения линейных обыкновенных дифференциальных уравнений и их приложения в квантовой механике и распространении волн</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Книга содержит советы и инструкции, которые помогли многим людям стать успешными и известными.</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>vis-mistralai/mistral-small-3.1-24b-instruct</t>
+          <t>vis-mistralai/pixtral-12b</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Книга рассказывает о том, как правильно подкармливать птиц, какие корма использовать, как защитить их от врагов и как привлечь на участок разнообразных пернатых.</t>
+          <t>The book provides advice on the correct care and feeding of your horse.</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Книга содержит асимптотические методы решения линейных обыкновенных дифференциальных уравнений и их применения к задачам квантовой механики и распространения волн.</t>
+          <t>The book presents asymmetric methods for solving linear generalized differential equations.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Эта книга содержит советы и инструкции Дейла Карнеги, которые помогли тысячам людей стать успешными и известными.</t>
+          <t>Книга учит, как завоевать друзей и оказать влияние на людей.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>vis-mistralai/pixtral-12b</t>
+          <t>vis-openai/gpt-4-turbo</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Книга "Птицы на кормушках: Подкормка и привлечение" предлагает всесторонние рекомендации о том, как правильно и безопасно кормить различные виды птиц и привлекать их к кормушкам.</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>В книге исследуются асимптотические методы для решения линейных обыкновенных дифференциальных уравнений и их применение в различных областях науки.</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Книга Дейла Карнеги предлагает проверенные временем советы по улучшению коммуникационных навыков и увеличению влияния на других людей.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4-turbo</t>
+          <t>vis-openai/gpt-4o</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Эта книга объясняет как, чем и когда подкармливать перелётных птиц, обеспечивая не только практическую руководство, но и научные основы подкормки.</t>
+          <t>Книга подробно рассказывает как правильно подкармливать птиц в различных местах какие корма использовать и как защитить их от угроз.</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Книга излагает асимптотические методы решения линейных обыкновенных дифференциальных уравнений и их применения в различных областях физики и техники.</t>
+          <t>Книга посвящена асимптотическим методам решений линейных дифференциальных уравнений и их приложениям в физике и инженерии.</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Книга Дейла Карнеги предоставляет эффективные инструкции и советы для успеха в общественных и личных начинаниях, обновленные его наследниками.</t>
+          <t>Советы Дейла Карнеги, несмотря на десятилетия, продолжают помогать людям быть успешными и востребованными.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o</t>
+          <t>vis-openai/gpt-4o-2024-08-06</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Книга дает полезные рекомендации по подкормке и привлечению птиц, делая акцент на безопасность, разнообразие кормов и способы защиты птиц.</t>
+          <t>Книга подробно рассказывает о подкормке диких птиц различных видов как и чем кормить чтобы привлечь их к кормушкам и защитить от опасностей.</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Книга охватывает асимптотические методы для решения линейных дифференциальных уравнений с физическими приложениями.</t>
+          <t>В книге рассматриваются асимптотические методы для линейных дифференциальных уравнений и их применения в различных физических задачах, подходящие для ученых и студентов университетов.</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Книга Дейла Карнеги предлагает проверенные советы по успешному общению и завоеванию друзей, адаптированные к современным реалиям.</t>
+          <t>Книга Дейла Карнеги содержит советы и поучения для достижения успеха и влияния на людей.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o-2024-08-06</t>
+          <t>vis-openai/gpt-4o-mini</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Книга подробно объясняет, как и чем кормить диких птиц, какие из них привлечь, а также содержит советы по защите птиц и выбору подкормки.</t>
+          <t>Книга исследует важность подкормки птиц и наблюдения за ними, предлагая советы по привлечению и уходу за различными видами.</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Книга описывает асимптотические методы решения дифференциальных уравнений и их применения в разных областях.</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Книга Дейла Карнеги содержит ценные советы которые помогают людям становиться успешными и общительными.</t>
+          <t>Книга предлагает принципы и советы от Дейла Карнеги о том, как завоевывать друзей и влиять на людей.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/gpt-4o-mini</t>
+          <t>vis-openai/o4-mini</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Книга предлагает исчерпывающие рекомендации по подкармливанию птиц и их привлечению, основанные на научных исследованиях и опыте автора.</t>
+          <t>Книга предлагает исчерпывающие практические рекомендации по подкормке и привлечению птиц в различных условиях, выбору и хранению кормов, обустройству кормушек, посадке растений и защите птиц от опасностей.</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Книга посвящена асимптотическим методам решения дифференциальных уравнений с применением в физических задачах.</t>
+          <t>В книге изложены асимптотические методы решения линейных обыкновенных дифференциальных уравнений с рассмотрением их физических приложений.</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Книга предоставляет ценные советы и стратегии общения для успешного взаимодействия с людьми.</t>
+          <t>Практическое руководство Дейла Карнеги с проверенными временем советами по налаживанию отношений и влиянию на людей, обновлённое наследниками автора.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>vis-openai/o4-mini</t>
+          <t>vis-qwen/qwen-2-vl-72b-instruct</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Книга даёт полные рекомендации по выбору, приготовлению и хранению кормов, обустройству и привлечению птиц к кормушкам, а также защите их от опасностей.</t>
+          <t>Книга рассказывает о тайнах звезд и их жизненном цикле в доступной форме с использованием фотографий и иллюстраций</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Книга описывает асимптотические методы решения линейных обыкновенных дифференциальных уравнений и их физические приложения, предназначена для студентов, аспирантов и специалистов.</t>
+          <t>Книга посвящена асимптотическим методам решения линейных дифференциальных уравнений и их применению в физике</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Книга содержит практические советы Дейла Карнеги по развитию коммуникативных навыков, укреплению отношений и повышению личного влияния.</t>
+          <t>Книга предлагает практические советы по улучшению навыков общения и влияния на окружающих</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-2-vl-72b-instruct</t>
+          <t>vis-qwen/qwen-vl-max</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Книга рассказывает о тайнах звезд и их жизненном цикле в доступной форме с использованием фотографий и иллюстраций</t>
+          <t>Книга посвящена подкормке и привлечению птиц на кормушки и содержит рекомендации по их наблюдению и защите</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Книга посвящена асимптотическим методам решения линейных дифференциальных уравнений и их применению в различных областях науки</t>
+          <t>Книга посвящена асимптотическим методам решения линейных обыкновенных дифференциальных уравнений и их приложениям</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Книга содержит советы и методы для улучшения межличностных отношений и достижения успеха в жизни</t>
+          <t>Книга содержит поучения инструкции и советы Дейла Карнеги которые помогли тысячам людей стать известными и удачливыми</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-vl-max</t>
+          <t>vis-qwen/qwen-vl-plus</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Книга посвящена подкормке и привлечению птиц на кормушки и содержит рекомендации по их наблюдению и защите</t>
+          <t>Книга о подкормке и привлечении птиц, основана на научных исследованиях и многолетнем опыте автора.</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Книга посвящена асимптотическим методам решения линейных обыкновенных дифференциальных уравнений и их приложениям</t>
+          <t>В книге представлены асимптотические методы решения линейных обыкновенных дифференциальных уравнений и их применение в различных областях науки.</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Книга содержит поучения инструкции и советы Дейла Карнеги которые помогли тысячам людей стать известными и удачливыми</t>
+          <t>Как завоевывать друзей и оказывать влияние на людей</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>vis-qwen/qwen-vl-plus</t>
+          <t>vis-qwen/qwen2.5-vl-72b-instruct</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Книга о подкормке и привлечении птиц, основана на научных исследованиях и многолетнем опыте автора.</t>
+          <t>Книга рассказывает о тайнах звезд и их жизненном цикле в доступной форме с использованием фотографий и иллюстраций</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>В книге представлены асимптотические методы решения линейных обыкновенных дифференциальных уравнений и их применение в различных областях науки.</t>
+          <t>Книга посвящена асимптотическим методам решения линейных дифференциальных уравнений и их применению в физике</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Как завоевывать друзей и оказывать влияние на людей</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>vis-qwen/qwen2.5-vl-72b-instruct</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>Книга рассказывает об удивительном мире звезд и их жизненном цикле с помощью интересных фактов и впечатляющих изображений</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>Книга посвящена асимптотическим методам решения линейных дифференциальных уравнений и их применению в физике и астрономии</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>Книга содержит советы и методы для улучшения навыков общения и влияния на других людей</t>
+          <t>Книга предлагает практические советы по улучшению навыков общения и влияния на окружающих</t>
         </is>
       </c>
     </row>
